--- a/Sistema-RPG-pontuação.xlsx
+++ b/Sistema-RPG-pontuação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3CF667-EA6F-4E60-8B54-342557E9A0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF39680-1CF6-4731-8317-1158FB78D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CEE89D8-85CA-487D-971C-6AFFD433DBC3}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +125,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="1" tint="0.25098422193060094"/>
+        </stop>
+        <stop position="1">
+          <color theme="1"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="10">
@@ -247,9 +269,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,22 +277,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -288,6 +293,23 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5647,11 +5669,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202746E6-1C35-43AB-B45A-D53CDC81F392}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,2074 +5688,2077 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
-        <v>30</v>
+      <c r="E3" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18">
-        <v>50</v>
+      <c r="E4" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>IF(E5&lt;10,1,IF(E5&lt;20,2,IF(E5&lt;30,3,IF(E5&lt;40,4,IF(E5&lt;50,5,IF(E5&lt;60,6,IF(E5&lt;70,7,IF(E5&lt;80,8,IF(E5&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="11" t="str">
         <f>IF(AND(E3&gt;=20,E4&gt;=25),"Saudável",IF(OR(E3&gt;=10,E4&gt;=10),"Enfraquecido",IF(OR(E3&gt;0,E4&gt;0),"Morrendo",IF(OR(E3=0,E4=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17">
-        <v>30</v>
+      <c r="E7" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18">
-        <v>50</v>
+      <c r="E8" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>IF(E9&lt;10,1,IF(E9&lt;20,2,IF(E9&lt;30,3,IF(E9&lt;40,4,IF(E9&lt;50,5,IF(E9&lt;60,6,IF(E9&lt;70,7,IF(E9&lt;80,8,IF(E9&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="11" t="str">
         <f>IF(AND(E7&gt;=20,E8&gt;=25),"Saudável",IF(OR(E7&gt;=10,E8&gt;=10),"Enfraquecido",IF(OR(E7&gt;0,E8&gt;0),"Morrendo",IF(OR(E7=0,E8=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="17">
-        <v>30</v>
+      <c r="E11" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18">
-        <v>50</v>
+      <c r="E12" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>IF(E13&lt;10,1,IF(E13&lt;20,2,IF(E13&lt;30,3,IF(E13&lt;40,4,IF(E13&lt;50,5,IF(E13&lt;60,6,IF(E13&lt;70,7,IF(E13&lt;80,8,IF(E13&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="11" t="str">
         <f>IF(AND(E11&gt;=20,E12&gt;=25),"Saudável",IF(OR(E11&gt;=10,E12&gt;=10),"Enfraquecido",IF(OR(E11&gt;0,E12&gt;0),"Morrendo",IF(OR(E11=0,E12=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="16">
         <v>4</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
-        <v>30</v>
+      <c r="E15" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="18">
-        <v>50</v>
+      <c r="E16" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>IF(E17&lt;10,1,IF(E17&lt;20,2,IF(E17&lt;30,3,IF(E17&lt;40,4,IF(E17&lt;50,5,IF(E17&lt;60,6,IF(E17&lt;70,7,IF(E17&lt;80,8,IF(E17&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="11" t="str">
         <f>IF(AND(E15&gt;=20,E16&gt;=25),"Saudável",IF(OR(E15&gt;=10,E16&gt;=10),"Enfraquecido",IF(OR(E15&gt;0,E16&gt;0),"Morrendo",IF(OR(E15=0,E16=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="16">
         <v>5</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="17">
-        <v>30</v>
+      <c r="E19" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="18">
-        <v>50</v>
+      <c r="E20" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>IF(E21&lt;10,1,IF(E21&lt;20,2,IF(E21&lt;30,3,IF(E21&lt;40,4,IF(E21&lt;50,5,IF(E21&lt;60,6,IF(E21&lt;70,7,IF(E21&lt;80,8,IF(E21&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="11" t="str">
         <f>IF(AND(E19&gt;=20,E20&gt;=25),"Saudável",IF(OR(E19&gt;=10,E20&gt;=10),"Enfraquecido",IF(OR(E19&gt;0,E20&gt;0),"Morrendo",IF(OR(E19=0,E20=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="16">
         <v>6</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="17">
-        <v>30</v>
+      <c r="E23" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="18">
-        <v>50</v>
+      <c r="E24" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>IF(E25&lt;10,1,IF(E25&lt;20,2,IF(E25&lt;30,3,IF(E25&lt;40,4,IF(E25&lt;50,5,IF(E25&lt;60,6,IF(E25&lt;70,7,IF(E25&lt;80,8,IF(E25&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="13" t="str">
+      <c r="C26" s="11" t="str">
         <f>IF(AND(E23&gt;=20,E24&gt;=25),"Saudável",IF(OR(E23&gt;=10,E24&gt;=10),"Enfraquecido",IF(OR(E23&gt;0,E24&gt;0),"Morrendo",IF(OR(E23=0,E24=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="16">
         <v>7</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="17">
-        <v>30</v>
+      <c r="E27" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="6" t="str">
+      <c r="C28" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="18">
-        <v>50</v>
+      <c r="E28" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f>IF(E29&lt;10,1,IF(E29&lt;20,2,IF(E29&lt;30,3,IF(E29&lt;40,4,IF(E29&lt;50,5,IF(E29&lt;60,6,IF(E29&lt;70,7,IF(E29&lt;80,8,IF(E29&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="11" t="str">
         <f>IF(AND(E27&gt;=20,E28&gt;=25),"Saudável",IF(OR(E27&gt;=10,E28&gt;=10),"Enfraquecido",IF(OR(E27&gt;0,E28&gt;0),"Morrendo",IF(OR(E27=0,E28=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="16">
         <v>8</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="17">
-        <v>30</v>
+      <c r="E31" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6" t="str">
+      <c r="C32" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="18">
-        <v>50</v>
+      <c r="E32" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <f>IF(E33&lt;10,1,IF(E33&lt;20,2,IF(E33&lt;30,3,IF(E33&lt;40,4,IF(E33&lt;50,5,IF(E33&lt;60,6,IF(E33&lt;70,7,IF(E33&lt;80,8,IF(E33&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="13" t="str">
+      <c r="C34" s="11" t="str">
         <f>IF(AND(E31&gt;=20,E32&gt;=25),"Saudável",IF(OR(E31&gt;=10,E32&gt;=10),"Enfraquecido",IF(OR(E31&gt;0,E32&gt;0),"Morrendo",IF(OR(E31=0,E32=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="16">
         <v>9</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="17">
-        <v>30</v>
+      <c r="E35" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="6" t="str">
+      <c r="C36" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="18">
-        <v>50</v>
+      <c r="E36" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <f>IF(E37&lt;10,1,IF(E37&lt;20,2,IF(E37&lt;30,3,IF(E37&lt;40,4,IF(E37&lt;50,5,IF(E37&lt;60,6,IF(E37&lt;70,7,IF(E37&lt;80,8,IF(E37&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="13" t="str">
+      <c r="C38" s="11" t="str">
         <f>IF(AND(E35&gt;=20,E36&gt;=25),"Saudável",IF(OR(E35&gt;=10,E36&gt;=10),"Enfraquecido",IF(OR(E35&gt;0,E36&gt;0),"Morrendo",IF(OR(E35=0,E36=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="16">
         <v>10</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="17">
-        <v>30</v>
+      <c r="E39" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="6" t="str">
+      <c r="C40" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="18">
-        <v>50</v>
+      <c r="E40" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <f>IF(E41&lt;10,1,IF(E41&lt;20,2,IF(E41&lt;30,3,IF(E41&lt;40,4,IF(E41&lt;50,5,IF(E41&lt;60,6,IF(E41&lt;70,7,IF(E41&lt;80,8,IF(E41&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="13" t="str">
+      <c r="C42" s="11" t="str">
         <f>IF(AND(E39&gt;=20,E40&gt;=25),"Saudável",IF(OR(E39&gt;=10,E40&gt;=10),"Enfraquecido",IF(OR(E39&gt;0,E40&gt;0),"Morrendo",IF(OR(E39=0,E40=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="16">
         <v>11</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="17">
-        <v>30</v>
+      <c r="E43" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="6" t="str">
+      <c r="C44" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="18">
-        <v>50</v>
+      <c r="E44" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <f>IF(E45&lt;10,1,IF(E45&lt;20,2,IF(E45&lt;30,3,IF(E45&lt;40,4,IF(E45&lt;50,5,IF(E45&lt;60,6,IF(E45&lt;70,7,IF(E45&lt;80,8,IF(E45&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="13" t="str">
+      <c r="C46" s="11" t="str">
         <f>IF(AND(E43&gt;=20,E44&gt;=25),"Saudável",IF(OR(E43&gt;=10,E44&gt;=10),"Enfraquecido",IF(OR(E43&gt;0,E44&gt;0),"Morrendo",IF(OR(E43=0,E44=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="A47" s="16">
         <v>12</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="17">
-        <v>30</v>
+      <c r="E47" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="6" t="str">
+      <c r="C48" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="18">
-        <v>50</v>
+      <c r="E48" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <f>IF(E49&lt;10,1,IF(E49&lt;20,2,IF(E49&lt;30,3,IF(E49&lt;40,4,IF(E49&lt;50,5,IF(E49&lt;60,6,IF(E49&lt;70,7,IF(E49&lt;80,8,IF(E49&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="13" t="str">
+      <c r="C50" s="11" t="str">
         <f>IF(AND(E47&gt;=20,E48&gt;=25),"Saudável",IF(OR(E47&gt;=10,E48&gt;=10),"Enfraquecido",IF(OR(E47&gt;0,E48&gt;0),"Morrendo",IF(OR(E47=0,E48=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="16">
         <v>13</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="9" t="s">
+      <c r="C51" s="20"/>
+      <c r="D51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="17">
-        <v>30</v>
+      <c r="E51" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="6" t="str">
+      <c r="C52" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="18">
-        <v>50</v>
+      <c r="E52" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <f>IF(E53&lt;10,1,IF(E53&lt;20,2,IF(E53&lt;30,3,IF(E53&lt;40,4,IF(E53&lt;50,5,IF(E53&lt;60,6,IF(E53&lt;70,7,IF(E53&lt;80,8,IF(E53&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="13" t="str">
+      <c r="C54" s="11" t="str">
         <f>IF(AND(E51&gt;=20,E52&gt;=25),"Saudável",IF(OR(E51&gt;=10,E52&gt;=10),"Enfraquecido",IF(OR(E51&gt;0,E52&gt;0),"Morrendo",IF(OR(E51=0,E52=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="16">
         <v>14</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="20"/>
+      <c r="D55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="17">
-        <v>30</v>
+      <c r="E55" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="6" t="str">
+      <c r="C56" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="18">
-        <v>50</v>
+      <c r="E56" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <f>IF(E57&lt;10,1,IF(E57&lt;20,2,IF(E57&lt;30,3,IF(E57&lt;40,4,IF(E57&lt;50,5,IF(E57&lt;60,6,IF(E57&lt;70,7,IF(E57&lt;80,8,IF(E57&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="13" t="str">
+      <c r="C58" s="11" t="str">
         <f>IF(AND(E55&gt;=20,E56&gt;=25),"Saudável",IF(OR(E55&gt;=10,E56&gt;=10),"Enfraquecido",IF(OR(E55&gt;0,E56&gt;0),"Morrendo",IF(OR(E55=0,E56=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+      <c r="A59" s="16">
         <v>15</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="9" t="s">
+      <c r="C59" s="20"/>
+      <c r="D59" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="17">
-        <v>30</v>
+      <c r="E59" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="6" t="str">
+      <c r="C60" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="18">
-        <v>50</v>
+      <c r="E60" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="16"/>
+      <c r="B61" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <f>IF(E61&lt;10,1,IF(E61&lt;20,2,IF(E61&lt;30,3,IF(E61&lt;40,4,IF(E61&lt;50,5,IF(E61&lt;60,6,IF(E61&lt;70,7,IF(E61&lt;80,8,IF(E61&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="8" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="13" t="str">
+      <c r="C62" s="11" t="str">
         <f>IF(AND(E59&gt;=20,E60&gt;=25),"Saudável",IF(OR(E59&gt;=10,E60&gt;=10),"Enfraquecido",IF(OR(E59&gt;0,E60&gt;0),"Morrendo",IF(OR(E59=0,E60=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
+      <c r="A63" s="16">
         <v>16</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="9" t="s">
+      <c r="C63" s="20"/>
+      <c r="D63" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="17">
-        <v>30</v>
+      <c r="E63" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="6" t="str">
+      <c r="C64" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="18">
-        <v>50</v>
+      <c r="E64" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="7" t="s">
+      <c r="A65" s="16"/>
+      <c r="B65" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <f>IF(E65&lt;10,1,IF(E65&lt;20,2,IF(E65&lt;30,3,IF(E65&lt;40,4,IF(E65&lt;50,5,IF(E65&lt;60,6,IF(E65&lt;70,7,IF(E65&lt;80,8,IF(E65&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="8" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="13" t="str">
+      <c r="C66" s="11" t="str">
         <f>IF(AND(E63&gt;=20,E64&gt;=25),"Saudável",IF(OR(E63&gt;=10,E64&gt;=10),"Enfraquecido",IF(OR(E63&gt;0,E64&gt;0),"Morrendo",IF(OR(E63=0,E64=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+      <c r="A67" s="16">
         <v>17</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="9" t="s">
+      <c r="C67" s="20"/>
+      <c r="D67" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="17">
-        <v>30</v>
+      <c r="E67" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="16"/>
+      <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="6" t="str">
+      <c r="C68" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="18">
-        <v>50</v>
+      <c r="E68" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="16"/>
+      <c r="B69" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <f>IF(E69&lt;10,1,IF(E69&lt;20,2,IF(E69&lt;30,3,IF(E69&lt;40,4,IF(E69&lt;50,5,IF(E69&lt;60,6,IF(E69&lt;70,7,IF(E69&lt;80,8,IF(E69&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="13" t="str">
+      <c r="C70" s="11" t="str">
         <f>IF(AND(E67&gt;=20,E68&gt;=25),"Saudável",IF(OR(E67&gt;=10,E68&gt;=10),"Enfraquecido",IF(OR(E67&gt;0,E68&gt;0),"Morrendo",IF(OR(E67=0,E68=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
+      <c r="A71" s="16">
         <v>18</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="9" t="s">
+      <c r="C71" s="20"/>
+      <c r="D71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="17">
-        <v>30</v>
+      <c r="E71" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="16"/>
+      <c r="B72" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="6" t="str">
+      <c r="C72" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="18">
-        <v>50</v>
+      <c r="E72" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <f>IF(E73&lt;10,1,IF(E73&lt;20,2,IF(E73&lt;30,3,IF(E73&lt;40,4,IF(E73&lt;50,5,IF(E73&lt;60,6,IF(E73&lt;70,7,IF(E73&lt;80,8,IF(E73&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="13" t="str">
+      <c r="C74" s="11" t="str">
         <f>IF(AND(E71&gt;=20,E72&gt;=25),"Saudável",IF(OR(E71&gt;=10,E72&gt;=10),"Enfraquecido",IF(OR(E71&gt;0,E72&gt;0),"Morrendo",IF(OR(E71=0,E72=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
+      <c r="A75" s="16">
         <v>19</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="9" t="s">
+      <c r="C75" s="20"/>
+      <c r="D75" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="17">
-        <v>30</v>
+      <c r="E75" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="6" t="str">
+      <c r="C76" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="18">
-        <v>50</v>
+      <c r="E76" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="16"/>
+      <c r="B77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="5">
         <f>IF(E77&lt;10,1,IF(E77&lt;20,2,IF(E77&lt;30,3,IF(E77&lt;40,4,IF(E77&lt;50,5,IF(E77&lt;60,6,IF(E77&lt;70,7,IF(E77&lt;80,8,IF(E77&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="13" t="str">
+      <c r="C78" s="11" t="str">
         <f>IF(AND(E75&gt;=20,E76&gt;=25),"Saudável",IF(OR(E75&gt;=10,E76&gt;=10),"Enfraquecido",IF(OR(E75&gt;0,E76&gt;0),"Morrendo",IF(OR(E75=0,E76=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="12">
+      <c r="A79" s="16">
         <v>20</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="9" t="s">
+      <c r="C79" s="20"/>
+      <c r="D79" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="17">
-        <v>30</v>
+      <c r="E79" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="7" t="s">
+      <c r="A80" s="16"/>
+      <c r="B80" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="6" t="str">
+      <c r="C80" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="18">
-        <v>50</v>
+      <c r="E80" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="7" t="s">
+      <c r="A81" s="16"/>
+      <c r="B81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="5">
         <f>IF(E81&lt;10,1,IF(E81&lt;20,2,IF(E81&lt;30,3,IF(E81&lt;40,4,IF(E81&lt;50,5,IF(E81&lt;60,6,IF(E81&lt;70,7,IF(E81&lt;80,8,IF(E81&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="16"/>
+      <c r="B82" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="13" t="str">
+      <c r="C82" s="11" t="str">
         <f>IF(AND(E79&gt;=20,E80&gt;=25),"Saudável",IF(OR(E79&gt;=10,E80&gt;=10),"Enfraquecido",IF(OR(E79&gt;0,E80&gt;0),"Morrendo",IF(OR(E79=0,E80=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="12">
+      <c r="A83" s="16">
         <v>21</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="9" t="s">
+      <c r="C83" s="20"/>
+      <c r="D83" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="17">
-        <v>30</v>
+      <c r="E83" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="7" t="s">
+      <c r="A84" s="16"/>
+      <c r="B84" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="6" t="str">
+      <c r="C84" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="18">
-        <v>50</v>
+      <c r="E84" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="7" t="s">
+      <c r="A85" s="16"/>
+      <c r="B85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="5">
         <f>IF(E85&lt;10,1,IF(E85&lt;20,2,IF(E85&lt;30,3,IF(E85&lt;40,4,IF(E85&lt;50,5,IF(E85&lt;60,6,IF(E85&lt;70,7,IF(E85&lt;80,8,IF(E85&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="16"/>
+      <c r="B86" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="13" t="str">
+      <c r="C86" s="11" t="str">
         <f>IF(AND(E83&gt;=20,E84&gt;=25),"Saudável",IF(OR(E83&gt;=10,E84&gt;=10),"Enfraquecido",IF(OR(E83&gt;0,E84&gt;0),"Morrendo",IF(OR(E83=0,E84=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="12">
+      <c r="A87" s="16">
         <v>22</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="9" t="s">
+      <c r="C87" s="20"/>
+      <c r="D87" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="17">
-        <v>30</v>
+      <c r="E87" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="7" t="s">
+      <c r="A88" s="16"/>
+      <c r="B88" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="6" t="str">
+      <c r="C88" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="18">
-        <v>50</v>
+      <c r="E88" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="7" t="s">
+      <c r="A89" s="16"/>
+      <c r="B89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <f>IF(E89&lt;10,1,IF(E89&lt;20,2,IF(E89&lt;30,3,IF(E89&lt;40,4,IF(E89&lt;50,5,IF(E89&lt;60,6,IF(E89&lt;70,7,IF(E89&lt;80,8,IF(E89&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="8" t="s">
+      <c r="A90" s="16"/>
+      <c r="B90" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="13" t="str">
+      <c r="C90" s="11" t="str">
         <f>IF(AND(E87&gt;=20,E88&gt;=25),"Saudável",IF(OR(E87&gt;=10,E88&gt;=10),"Enfraquecido",IF(OR(E87&gt;0,E88&gt;0),"Morrendo",IF(OR(E87=0,E88=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E90" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="12">
+      <c r="A91" s="16">
         <v>23</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="9" t="s">
+      <c r="C91" s="20"/>
+      <c r="D91" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="17">
-        <v>30</v>
+      <c r="E91" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="7" t="s">
+      <c r="A92" s="16"/>
+      <c r="B92" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="6" t="str">
+      <c r="C92" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="18">
-        <v>50</v>
+      <c r="E92" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="7" t="s">
+      <c r="A93" s="16"/>
+      <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <f>IF(E93&lt;10,1,IF(E93&lt;20,2,IF(E93&lt;30,3,IF(E93&lt;40,4,IF(E93&lt;50,5,IF(E93&lt;60,6,IF(E93&lt;70,7,IF(E93&lt;80,8,IF(E93&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="8" t="s">
+      <c r="A94" s="16"/>
+      <c r="B94" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="13" t="str">
+      <c r="C94" s="11" t="str">
         <f>IF(AND(E91&gt;=20,E92&gt;=25),"Saudável",IF(OR(E91&gt;=10,E92&gt;=10),"Enfraquecido",IF(OR(E91&gt;0,E92&gt;0),"Morrendo",IF(OR(E91=0,E92=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="12">
+      <c r="A95" s="16">
         <v>24</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="9" t="s">
+      <c r="C95" s="20"/>
+      <c r="D95" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="17">
-        <v>30</v>
+      <c r="E95" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="7" t="s">
+      <c r="A96" s="16"/>
+      <c r="B96" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="6" t="str">
+      <c r="C96" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="18">
-        <v>50</v>
+      <c r="E96" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="7" t="s">
+      <c r="A97" s="16"/>
+      <c r="B97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="5">
         <f>IF(E97&lt;10,1,IF(E97&lt;20,2,IF(E97&lt;30,3,IF(E97&lt;40,4,IF(E97&lt;50,5,IF(E97&lt;60,6,IF(E97&lt;70,7,IF(E97&lt;80,8,IF(E97&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="8" t="s">
+      <c r="A98" s="16"/>
+      <c r="B98" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="13" t="str">
+      <c r="C98" s="11" t="str">
         <f>IF(AND(E95&gt;=20,E96&gt;=25),"Saudável",IF(OR(E95&gt;=10,E96&gt;=10),"Enfraquecido",IF(OR(E95&gt;0,E96&gt;0),"Morrendo",IF(OR(E95=0,E96=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E98" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="12">
+      <c r="A99" s="16">
         <v>25</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="9" t="s">
+      <c r="C99" s="20"/>
+      <c r="D99" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="17">
-        <v>30</v>
+      <c r="E99" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="16"/>
+      <c r="B100" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="6" t="str">
+      <c r="C100" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="18">
-        <v>50</v>
+      <c r="E100" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="7" t="s">
+      <c r="A101" s="16"/>
+      <c r="B101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="5">
         <f>IF(E101&lt;10,1,IF(E101&lt;20,2,IF(E101&lt;30,3,IF(E101&lt;40,4,IF(E101&lt;50,5,IF(E101&lt;60,6,IF(E101&lt;70,7,IF(E101&lt;80,8,IF(E101&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="8" t="s">
+      <c r="A102" s="16"/>
+      <c r="B102" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="13" t="str">
+      <c r="C102" s="11" t="str">
         <f>IF(AND(E99&gt;=20,E100&gt;=25),"Saudável",IF(OR(E99&gt;=10,E100&gt;=10),"Enfraquecido",IF(OR(E99&gt;0,E100&gt;0),"Morrendo",IF(OR(E99=0,E100=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="19">
+      <c r="E102" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12">
+      <c r="A103" s="16">
         <v>26</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="9" t="s">
+      <c r="C103" s="20"/>
+      <c r="D103" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="17">
-        <v>30</v>
+      <c r="E103" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="7" t="s">
+      <c r="A104" s="16"/>
+      <c r="B104" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="6" t="str">
+      <c r="C104" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="18">
-        <v>50</v>
+      <c r="E104" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="16"/>
+      <c r="B105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="5">
         <f>IF(E105&lt;10,1,IF(E105&lt;20,2,IF(E105&lt;30,3,IF(E105&lt;40,4,IF(E105&lt;50,5,IF(E105&lt;60,6,IF(E105&lt;70,7,IF(E105&lt;80,8,IF(E105&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="8" t="s">
+      <c r="A106" s="16"/>
+      <c r="B106" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="13" t="str">
+      <c r="C106" s="11" t="str">
         <f>IF(AND(E103&gt;=20,E104&gt;=25),"Saudável",IF(OR(E103&gt;=10,E104&gt;=10),"Enfraquecido",IF(OR(E103&gt;0,E104&gt;0),"Morrendo",IF(OR(E103=0,E104=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12">
+      <c r="A107" s="16">
         <v>27</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="9" t="s">
+      <c r="C107" s="20"/>
+      <c r="D107" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="17">
-        <v>30</v>
+      <c r="E107" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="7" t="s">
+      <c r="A108" s="16"/>
+      <c r="B108" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="6" t="str">
+      <c r="C108" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="18">
-        <v>50</v>
+      <c r="E108" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="16"/>
+      <c r="B109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="5">
         <f>IF(E109&lt;10,1,IF(E109&lt;20,2,IF(E109&lt;30,3,IF(E109&lt;40,4,IF(E109&lt;50,5,IF(E109&lt;60,6,IF(E109&lt;70,7,IF(E109&lt;80,8,IF(E109&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="8" t="s">
+      <c r="A110" s="16"/>
+      <c r="B110" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="13" t="str">
+      <c r="C110" s="11" t="str">
         <f>IF(AND(E107&gt;=20,E108&gt;=25),"Saudável",IF(OR(E107&gt;=10,E108&gt;=10),"Enfraquecido",IF(OR(E107&gt;0,E108&gt;0),"Morrendo",IF(OR(E107=0,E108=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="19">
+      <c r="E110" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12">
+      <c r="A111" s="16">
         <v>28</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="9" t="s">
+      <c r="C111" s="20"/>
+      <c r="D111" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="17">
-        <v>30</v>
+      <c r="E111" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="16"/>
+      <c r="B112" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="6" t="str">
+      <c r="C112" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E112" s="18">
-        <v>50</v>
+      <c r="E112" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="7" t="s">
+      <c r="A113" s="16"/>
+      <c r="B113" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="5">
         <f>IF(E113&lt;10,1,IF(E113&lt;20,2,IF(E113&lt;30,3,IF(E113&lt;40,4,IF(E113&lt;50,5,IF(E113&lt;60,6,IF(E113&lt;70,7,IF(E113&lt;80,8,IF(E113&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="8" t="s">
+      <c r="A114" s="16"/>
+      <c r="B114" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="13" t="str">
+      <c r="C114" s="11" t="str">
         <f>IF(AND(E111&gt;=20,E112&gt;=25),"Saudável",IF(OR(E111&gt;=10,E112&gt;=10),"Enfraquecido",IF(OR(E111&gt;0,E112&gt;0),"Morrendo",IF(OR(E111=0,E112=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="19">
+      <c r="E114" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="12">
+      <c r="A115" s="16">
         <v>29</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="9" t="s">
+      <c r="C115" s="20"/>
+      <c r="D115" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="17">
-        <v>30</v>
+      <c r="E115" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="7" t="s">
+      <c r="A116" s="16"/>
+      <c r="B116" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="6" t="str">
+      <c r="C116" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="18">
-        <v>50</v>
+      <c r="E116" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="7" t="s">
+      <c r="A117" s="16"/>
+      <c r="B117" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="5">
         <f>IF(E117&lt;10,1,IF(E117&lt;20,2,IF(E117&lt;30,3,IF(E117&lt;40,4,IF(E117&lt;50,5,IF(E117&lt;60,6,IF(E117&lt;70,7,IF(E117&lt;80,8,IF(E117&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E117" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="8" t="s">
+      <c r="A118" s="16"/>
+      <c r="B118" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="13" t="str">
+      <c r="C118" s="11" t="str">
         <f>IF(AND(E115&gt;=20,E116&gt;=25),"Saudável",IF(OR(E115&gt;=10,E116&gt;=10),"Enfraquecido",IF(OR(E115&gt;0,E116&gt;0),"Morrendo",IF(OR(E115=0,E116=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="12">
+      <c r="A119" s="16">
         <v>30</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="9" t="s">
+      <c r="C119" s="20"/>
+      <c r="D119" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="17">
-        <v>30</v>
+      <c r="E119" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="7" t="s">
+      <c r="A120" s="16"/>
+      <c r="B120" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="6" t="str">
+      <c r="C120" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="18">
-        <v>50</v>
+      <c r="E120" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="7" t="s">
+      <c r="A121" s="16"/>
+      <c r="B121" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="5">
         <f>IF(E121&lt;10,1,IF(E121&lt;20,2,IF(E121&lt;30,3,IF(E121&lt;40,4,IF(E121&lt;50,5,IF(E121&lt;60,6,IF(E121&lt;70,7,IF(E121&lt;80,8,IF(E121&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-      <c r="B122" s="8" t="s">
+      <c r="A122" s="16"/>
+      <c r="B122" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="13" t="str">
+      <c r="C122" s="11" t="str">
         <f>IF(AND(E119&gt;=20,E120&gt;=25),"Saudável",IF(OR(E119&gt;=10,E120&gt;=10),"Enfraquecido",IF(OR(E119&gt;0,E120&gt;0),"Morrendo",IF(OR(E119=0,E120=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="19">
+      <c r="E122" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="12">
+      <c r="A123" s="16">
         <v>31</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="9" t="s">
+      <c r="C123" s="20"/>
+      <c r="D123" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="17">
-        <v>30</v>
+      <c r="E123" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="7" t="s">
+      <c r="A124" s="16"/>
+      <c r="B124" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="6" t="str">
+      <c r="C124" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E124" s="18">
-        <v>50</v>
+      <c r="E124" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="7" t="s">
+      <c r="A125" s="16"/>
+      <c r="B125" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="5">
         <f>IF(E125&lt;10,1,IF(E125&lt;20,2,IF(E125&lt;30,3,IF(E125&lt;40,4,IF(E125&lt;50,5,IF(E125&lt;60,6,IF(E125&lt;70,7,IF(E125&lt;80,8,IF(E125&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="18">
+      <c r="E125" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="8" t="s">
+      <c r="A126" s="16"/>
+      <c r="B126" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="13" t="str">
+      <c r="C126" s="11" t="str">
         <f>IF(AND(E123&gt;=20,E124&gt;=25),"Saudável",IF(OR(E123&gt;=10,E124&gt;=10),"Enfraquecido",IF(OR(E123&gt;0,E124&gt;0),"Morrendo",IF(OR(E123=0,E124=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="12">
+      <c r="A127" s="16">
         <v>32</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="9" t="s">
+      <c r="C127" s="20"/>
+      <c r="D127" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="17">
-        <v>30</v>
+      <c r="E127" s="12">
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-      <c r="B128" s="7" t="s">
+      <c r="A128" s="16"/>
+      <c r="B128" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="6" t="str">
+      <c r="C128" s="5" t="str">
         <f>$G$1</f>
         <v>Operador de micro</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="18">
-        <v>50</v>
+      <c r="E128" s="13">
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="7" t="s">
+      <c r="A129" s="16"/>
+      <c r="B129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="5">
         <f>IF(E129&lt;10,1,IF(E129&lt;20,2,IF(E129&lt;30,3,IF(E129&lt;40,4,IF(E129&lt;50,5,IF(E129&lt;60,6,IF(E129&lt;70,7,IF(E129&lt;80,8,IF(E129&lt;90,9,10)))))))))</f>
         <v>1</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E129" s="18">
+      <c r="E129" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="8" t="s">
+      <c r="A130" s="16"/>
+      <c r="B130" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="13" t="str">
+      <c r="C130" s="11" t="str">
         <f>IF(AND(E127&gt;=20,E128&gt;=25),"Saudável",IF(OR(E127&gt;=10,E128&gt;=10),"Enfraquecido",IF(OR(E127&gt;0,E128&gt;0),"Morrendo",IF(OR(E127=0,E128=0),"Morto"))))</f>
         <v>Saudável</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="67">
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
     <mergeCell ref="A123:A126"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="A1:E1"/>
@@ -7750,40 +7775,37 @@
     <mergeCell ref="A111:A114"/>
     <mergeCell ref="A115:A118"/>
     <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B123:C123"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="dataBar" priority="1312">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+    <cfRule type="dataBar" priority="1560">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
@@ -7794,10 +7816,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="dataBar" priority="1311">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+    <cfRule type="dataBar" priority="1559">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
@@ -7808,7 +7830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="dataBar" priority="1310">
+    <cfRule type="dataBar" priority="1558">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7822,7 +7844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="dataBar" priority="1309">
+    <cfRule type="dataBar" priority="1557">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7836,16 +7858,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="251" priority="1060" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="1308" operator="equal">
       <formula>"Saudável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="1307" operator="equal">
       <formula>"Enfraquecido"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="1058" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="1306" operator="equal">
       <formula>"Morrendo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="1057" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="1305" operator="equal">
       <formula>"Morto"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7853,12 +7875,12 @@
     <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3BB3493F-C270-4C73-AA6E-583BA36821DC}</x14:id>
+          <x14:id>{72F84237-11EA-430E-9E1D-ED8D0A871E94}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7867,12 +7889,12 @@
     <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5CB5F52A-D7BE-47D9-B561-E3C10E52F6DB}</x14:id>
+          <x14:id>{C1E5A47E-A447-4578-B3C7-11782FAF3A27}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7886,7 +7908,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89B33B3F-C246-49C4-814A-ACBC4495DC43}</x14:id>
+          <x14:id>{6FC1A08A-E14C-4BDB-BCC6-599B37146608}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7900,7 +7922,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{637424B2-A900-413A-BCFE-60670B42DEFE}</x14:id>
+          <x14:id>{0DB1B273-6D96-4F4F-8DBF-7E8ABA5FB41F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7923,12 +7945,12 @@
     <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{43673551-A257-41AA-8CB7-8455D41CAF60}</x14:id>
+          <x14:id>{C8981956-9F90-427D-ACE3-11C13F1B164A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7937,12 +7959,12 @@
     <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{23C45FEC-4450-4B7C-AA17-FE79F7698721}</x14:id>
+          <x14:id>{51EEB71E-752B-4BC3-9F04-68E996E33ABB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7956,7 +7978,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C6CBFFB-BC15-4D51-9A7C-8B028FC7EF93}</x14:id>
+          <x14:id>{8150CC09-6AEE-4C87-B8C1-8E312B4B9DFC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7970,7 +7992,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{878EBE30-229B-4235-B12E-B6274E73330A}</x14:id>
+          <x14:id>{75385F78-F314-4811-BD4E-0D1EF5A819A8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7993,12 +8015,12 @@
     <cfRule type="dataBar" priority="232">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A55E1EF9-D58F-4674-9CDD-D1C00678198E}</x14:id>
+          <x14:id>{2A7DB7EC-A394-417A-82E7-1621BDBB54A5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8007,12 +8029,12 @@
     <cfRule type="dataBar" priority="231">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D1051BEC-B32A-4480-AB66-5DDCBDAF1DC4}</x14:id>
+          <x14:id>{DCC5824F-ED4D-458E-9008-C1BFEFDC5FD0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8026,7 +8048,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0EE462ED-8527-4057-B639-B91ED62645B0}</x14:id>
+          <x14:id>{E2C87023-4044-4C4A-A09C-85AFA61FA157}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8040,7 +8062,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C022BD35-E26A-4EAE-8D72-ED4DA812321D}</x14:id>
+          <x14:id>{0BC37EC3-AF7A-4969-9B59-2B67562A80EE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8063,12 +8085,12 @@
     <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0FF8A68E-59C3-4EC0-9980-54086A6E853B}</x14:id>
+          <x14:id>{E30674A6-A46A-4CD9-9BA7-00C4BEF7E451}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8077,12 +8099,12 @@
     <cfRule type="dataBar" priority="223">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1C2A7F23-6D38-4232-AACA-A12052645A50}</x14:id>
+          <x14:id>{1CE3D5E9-5306-42DA-85E3-714B20D59E73}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8096,7 +8118,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63EE12B3-23A0-4D7B-B5E6-81F4B94C5D1E}</x14:id>
+          <x14:id>{F1F6790B-B4C3-438F-B19E-60BAC03601EC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8110,7 +8132,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98F15015-B4B0-4EFF-80EB-DCCBFECF6341}</x14:id>
+          <x14:id>{D59E7576-FFAD-489E-BE78-4C8A23066616}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8133,12 +8155,12 @@
     <cfRule type="dataBar" priority="216">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19E2E26E-E26B-419A-9A81-AB28A106831A}</x14:id>
+          <x14:id>{AC854A57-7B9C-4F6B-B254-2EF67A8C6961}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8147,12 +8169,12 @@
     <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF586085-240A-4191-97B4-8ABEBE1520CC}</x14:id>
+          <x14:id>{184503E5-1F64-4DF4-98A4-C45200A626CC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8166,7 +8188,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C029AFBA-B716-4AD4-82D1-E517A669EF2F}</x14:id>
+          <x14:id>{124DE221-E8DA-4580-8A54-5DC4E685B606}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8180,7 +8202,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7386420C-7934-4ECB-B3A6-F83E80D6EDCE}</x14:id>
+          <x14:id>{F5538760-6190-4209-9504-1A9DC750A422}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8203,12 +8225,12 @@
     <cfRule type="dataBar" priority="208">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{30750581-1B5B-4A66-8755-9DBEC0E479D3}</x14:id>
+          <x14:id>{4398D2F0-C416-477D-9FDB-C8C996BE146D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8217,12 +8239,12 @@
     <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D5125B41-1D78-4D8D-A1FF-D7B2C3496ED7}</x14:id>
+          <x14:id>{8EABE855-3CE1-4DF8-BCA3-4CEE930BDA2D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8236,7 +8258,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04DBC2E2-FAFB-4A41-8604-56C3069A3E02}</x14:id>
+          <x14:id>{9E4FC2AA-B283-491A-9DAB-1CD2AEC5F674}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8250,7 +8272,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64435C6C-5BED-4489-A521-EE9454A893FE}</x14:id>
+          <x14:id>{5626FC76-0D05-49E7-8224-C9D42BEB88D2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8273,12 +8295,12 @@
     <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{636252BB-B7B1-4620-B9A4-1B2973986EB5}</x14:id>
+          <x14:id>{B8BF08D3-BF80-4CCE-BAD1-BF2C21B59FB4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8287,12 +8309,12 @@
     <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B470C119-A8E0-4652-AEEA-199C8352B68F}</x14:id>
+          <x14:id>{78BC5C5E-6079-4B42-A194-22BDA0203423}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8306,7 +8328,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5CF74CE6-1B1F-4A35-9241-0FFD0CEDF4D9}</x14:id>
+          <x14:id>{1B36F1F7-091A-44B1-85AA-C0862EA5F253}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8320,7 +8342,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA167C6A-4CD9-4C73-9128-556F453C9FE2}</x14:id>
+          <x14:id>{1978EBDD-49FA-4640-956D-4F44CD32392B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8343,12 +8365,12 @@
     <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3AC2A98E-FA4D-461F-BC8F-14013B7316EE}</x14:id>
+          <x14:id>{EC053061-D16A-4B30-B1B1-3C0EB0B60D74}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8357,12 +8379,12 @@
     <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CDC423A5-8F17-4DE7-A029-16BF7EB5153D}</x14:id>
+          <x14:id>{68FD2B97-0BB4-4974-9E7A-1605ACA78607}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8376,7 +8398,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1BC73681-4BE3-42B7-877F-3C2DF7582B5D}</x14:id>
+          <x14:id>{0D915EF7-1433-429E-9B95-EA57BE80BB3E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8390,7 +8412,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F29008F9-EE46-41C8-AC51-ECA5DFB7B378}</x14:id>
+          <x14:id>{E42E97A0-79F9-4D34-8FEC-B09F0A3E939C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8413,12 +8435,12 @@
     <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F763AB4B-A7EA-45F9-9475-EC5AD1C85A24}</x14:id>
+          <x14:id>{228E3091-DADF-4B56-9079-A45DA70CE4BE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8427,12 +8449,12 @@
     <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A995022-679A-43C6-AC7F-DAE2A0FFE142}</x14:id>
+          <x14:id>{EC69B20B-7ECE-4E27-8F55-6CDAE87383D3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8446,7 +8468,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{274921EC-CF33-457B-B23A-B073D964580E}</x14:id>
+          <x14:id>{71565A49-DF45-429B-989C-C72D2179D009}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8460,7 +8482,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18B29CB6-0C5D-4B05-8B1C-907E3FE0FF9F}</x14:id>
+          <x14:id>{9A65518C-52A6-4425-9FBC-B3D9A57FD44D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8483,12 +8505,12 @@
     <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CE5556F5-1041-47B1-8537-3F262045CF90}</x14:id>
+          <x14:id>{D62C99C5-11A6-417F-9FB6-78E185054F9B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8497,12 +8519,12 @@
     <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1EF2E6F2-9275-4EC8-82C0-252B0E9CF99C}</x14:id>
+          <x14:id>{C4BE5658-3211-40A3-A71C-713FDEC2B086}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8516,7 +8538,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C27B15DB-14BA-4CA8-A751-31544104268A}</x14:id>
+          <x14:id>{3581337F-35F3-4C11-B305-4303C1BF3C36}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8530,7 +8552,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ED69CF0-BDEE-47EB-811D-DFAB29448B24}</x14:id>
+          <x14:id>{BB0419A6-E149-426F-8C40-4619851DE7F7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8553,12 +8575,12 @@
     <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CADE784C-25C1-470C-BFCC-3767FFEAA59A}</x14:id>
+          <x14:id>{7C1DB01E-59E2-403E-9B31-92E3BDB3B65F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8567,12 +8589,12 @@
     <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AD28F5D6-E233-41A8-A6AB-CD4973A57BE2}</x14:id>
+          <x14:id>{95543157-640E-45CC-872E-9BBE73ABF677}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8586,7 +8608,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B1DB1C3B-E6F3-4EFD-8F2F-B92DCAF99B2E}</x14:id>
+          <x14:id>{DB8EA338-78B3-4198-9EB3-A190795E929D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8600,7 +8622,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17BB1265-B5AF-4972-9850-1ED5D37E48F0}</x14:id>
+          <x14:id>{4D52DDED-B62B-4C22-B983-AB1915FB5A67}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8623,12 +8645,12 @@
     <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A35556F8-920D-4CA2-8783-0FF33DA4BF94}</x14:id>
+          <x14:id>{3C6DDF19-175C-4661-916D-96FD0498FBDF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8637,12 +8659,12 @@
     <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2DDEE1E4-E540-4B25-A3B0-DC6BFB4A8868}</x14:id>
+          <x14:id>{9FEA4A77-7BE5-447D-8938-C6DD6D10B699}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8656,7 +8678,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E4946E91-90C7-4814-864C-63A8F604F08A}</x14:id>
+          <x14:id>{1CDB9671-56C9-4044-9459-C3A7D83DB796}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8670,7 +8692,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31263F73-5660-4D5C-A3C3-AB49C5E997E3}</x14:id>
+          <x14:id>{B09921FF-BCBD-4A44-A019-4DBFADA5F6B1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8693,12 +8715,12 @@
     <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A67C69A-53BD-4162-AEC8-08DB4A2EF50E}</x14:id>
+          <x14:id>{8F77DF04-56AE-4E9F-A777-F60603D34DCF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8707,12 +8729,12 @@
     <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{613416E8-7E08-4263-9998-49EA85F9BDA6}</x14:id>
+          <x14:id>{C2A510FA-0F9B-4DD6-9DD1-7AD42F88B556}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8726,7 +8748,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35AFA53F-7599-490A-95ED-B79C3D5121A5}</x14:id>
+          <x14:id>{E5E151CB-9AF3-42FA-8CF9-0E1677539F65}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8740,7 +8762,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24736782-D28F-4B30-8BFA-AED056F322FD}</x14:id>
+          <x14:id>{E96CE71E-5B63-4D9F-A1F4-EA8C8886DD4E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8763,12 +8785,12 @@
     <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C1277F7-2723-49A0-BC9A-7108184F0649}</x14:id>
+          <x14:id>{9DC8B4AC-4F2F-42AA-A80D-2F462D9DDCB1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8777,12 +8799,12 @@
     <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6663BBFC-3CDF-4F8D-BD1E-6B2E8FA2356B}</x14:id>
+          <x14:id>{1E7F7D19-AD2C-4518-A175-F5269C80402B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8796,7 +8818,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA0F8B25-556F-4F66-921C-A3074AC9663B}</x14:id>
+          <x14:id>{B06C9110-2548-40CF-9608-133085105FB2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8810,7 +8832,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D0FBD271-7F17-4BB6-9762-34BF4EEDC8A3}</x14:id>
+          <x14:id>{3C8401B9-A6F2-48E3-84D0-63EE45CDB6CE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8833,12 +8855,12 @@
     <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{860F33D9-0DE1-47E3-A8AC-92C34F35D3C8}</x14:id>
+          <x14:id>{773EB569-CE67-4692-99C2-45C1AF036777}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8847,12 +8869,12 @@
     <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9B7C0E9F-143E-4F35-AC57-8EE764A4F7F1}</x14:id>
+          <x14:id>{0FF9A74E-7F8B-49D9-BDE9-FAAAC496F303}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8866,7 +8888,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42009C81-5749-4555-BD9F-57CFC0304D53}</x14:id>
+          <x14:id>{9CD01CDE-7285-4146-88DA-55AD03908745}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8880,7 +8902,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0F559BDC-17C2-4062-9B2C-EFF0A3AFF5BD}</x14:id>
+          <x14:id>{76C2D8A1-94EF-4DF9-8268-6B5F1811F653}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8903,12 +8925,12 @@
     <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{337666E1-EABF-4BB7-9D43-757283E7D5E7}</x14:id>
+          <x14:id>{282590A9-EBBB-42E6-B93E-1086E1A409DF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8917,12 +8939,12 @@
     <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1DB52848-78FE-4A69-9951-FF6568B0E55B}</x14:id>
+          <x14:id>{168FE903-5B46-458D-8B9A-00B63591BAA3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8936,7 +8958,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9EA614E4-C3C2-4192-90A5-897E6C4A46F0}</x14:id>
+          <x14:id>{8226FDC1-6B57-4536-AAEC-82235EEC0E03}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8950,7 +8972,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95D3F798-3B08-42D0-ACE3-26C025A55385}</x14:id>
+          <x14:id>{7666DF13-9B86-44FC-B640-1A4C66A2CC96}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8973,12 +8995,12 @@
     <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2D973779-AFCB-4119-9FA1-C283758C7A29}</x14:id>
+          <x14:id>{3B411D03-2C1E-4CA2-BA8E-7B52A342CFBD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8987,12 +9009,12 @@
     <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B320F6CA-75FD-4DBE-89DE-D87802F8AFC4}</x14:id>
+          <x14:id>{1583AE06-ABBD-4D31-8066-16814DC58B41}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9006,7 +9028,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2D1A81E-E5CE-43D5-B4B2-7E5449276433}</x14:id>
+          <x14:id>{8D144320-A965-475B-AC71-608953933863}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9020,7 +9042,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{268FE700-4779-4D4A-BF1F-590F5AAA4C14}</x14:id>
+          <x14:id>{24A90018-C7D2-4624-BCF8-064C465A74BF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9043,12 +9065,12 @@
     <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D193835B-D6D9-49C7-9505-CFEDD2581C37}</x14:id>
+          <x14:id>{35A4F83C-D9F0-44F1-879E-02811472A911}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9057,12 +9079,12 @@
     <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AD98AF2C-AAB1-4317-80B2-FCCB7A0D774D}</x14:id>
+          <x14:id>{72ED520B-9964-498C-B4C1-66FFAC3E0EB5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9076,7 +9098,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D9E6585-8662-49F8-98A0-0B21F518DC2A}</x14:id>
+          <x14:id>{5348C449-D177-4E2C-8A3F-80E597E4E0FA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9090,7 +9112,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{27B7BE41-0E2A-42E0-9ABF-113D3C61B52C}</x14:id>
+          <x14:id>{0D34486F-8B2A-41B6-805E-8AB9AB44BDEE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9113,12 +9135,12 @@
     <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75F90F2E-76C5-4D5B-B2D0-F4F07F7A5B40}</x14:id>
+          <x14:id>{DADF6AA8-DFCF-44E6-A05F-C11979926342}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9127,12 +9149,12 @@
     <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82406B3A-35EA-4F2D-9A9B-D32CF520BFBB}</x14:id>
+          <x14:id>{C2EE93F8-E8F9-4106-8DB9-9ED5E53A2DAC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9146,7 +9168,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D832445F-4D49-49CA-A917-AF4D6C4BD82F}</x14:id>
+          <x14:id>{863ADA50-E631-4193-8254-937AE041FFC3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9160,7 +9182,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AB71E4CF-4A44-4AEE-A5AB-C34C41B86991}</x14:id>
+          <x14:id>{F56BDBAB-CFB3-4778-82DA-4B470E056013}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9183,12 +9205,12 @@
     <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8BCD6F48-E159-431A-AA24-F504BA15784D}</x14:id>
+          <x14:id>{B299E357-F938-41FA-9AA2-A7EAEF9D4C80}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9197,12 +9219,12 @@
     <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EA58A79A-07CC-4D20-A2DF-BEBAAE22AEFD}</x14:id>
+          <x14:id>{2C4B909B-5532-4CAB-89C3-E41C81CCDBD7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9216,7 +9238,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7B4D4C41-84AA-4FA8-A905-EA63E34F91C7}</x14:id>
+          <x14:id>{C1A83523-2A79-4454-93D8-E667547EAB28}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9230,7 +9252,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{789B30DC-88F6-428E-986C-23D0EFB253C3}</x14:id>
+          <x14:id>{38D5E134-8120-4523-920A-B28DEF170221}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9253,12 +9275,12 @@
     <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A5422B1A-BCE1-4BA4-82D3-13038F0B14C3}</x14:id>
+          <x14:id>{ACA8D522-DD55-491E-BD6C-3FED1CE59F7E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9267,12 +9289,12 @@
     <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C56F660B-8CA6-47BF-978A-A980BAD6734D}</x14:id>
+          <x14:id>{C1A19558-6245-4938-A174-BA1BD2A02016}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9286,7 +9308,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C2A34FC0-47C1-4F9B-B498-4EF09E2554DE}</x14:id>
+          <x14:id>{3CC85252-DA56-40AC-9699-B068E585BA3C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9300,7 +9322,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{779114CA-85C7-4F7B-A3BA-B4252290DAF2}</x14:id>
+          <x14:id>{EAAECC13-3FB6-498A-AE55-F16D6F0DE1A0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9323,12 +9345,12 @@
     <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E4D8D083-3745-42D8-A0FF-5E2E1B9E6415}</x14:id>
+          <x14:id>{F3E18565-75D4-4974-B9F6-B1BC61B1CAB3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9337,12 +9359,12 @@
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A4D966C-5CA5-459D-AE37-0185308F51A4}</x14:id>
+          <x14:id>{37D1B22F-8103-4B3D-A118-AAF14F8DD5B0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9356,7 +9378,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7B228496-FC75-4E12-8BC0-C30913F7B545}</x14:id>
+          <x14:id>{8AC271FA-26D0-4860-BA71-F8A755DAFEF2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9370,7 +9392,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BAB6BBD5-81AF-43A0-9625-BD1B99D76BB4}</x14:id>
+          <x14:id>{D13D50F8-F1AB-46FA-BACA-3221A209A21A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9393,12 +9415,12 @@
     <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{493C9701-65E3-4E2B-B053-A8C96A5F249E}</x14:id>
+          <x14:id>{5931AFF6-FFFF-426A-B684-6FECFDE688A3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9407,12 +9429,12 @@
     <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A4FA252F-9E36-4069-BF5C-DCDA4BB62960}</x14:id>
+          <x14:id>{FE153B44-7C8D-4B99-B153-B2156F7CE3ED}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9426,7 +9448,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FC7D78FB-58CB-4E15-A0CD-8A0228C1A64D}</x14:id>
+          <x14:id>{911B358B-FA81-4699-9953-91F3278046A9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9440,7 +9462,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{709F7E84-9B06-463C-B361-FA20E339B529}</x14:id>
+          <x14:id>{D27C0E61-81F8-46D7-9E6D-C4889B7F54E9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9463,12 +9485,12 @@
     <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0AB87AB-33DD-49B2-8096-D38E436B5CBA}</x14:id>
+          <x14:id>{45F7193F-AA5C-4506-BCD8-B20C09C059E1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9477,12 +9499,12 @@
     <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B506AA58-2929-4428-9ABC-53D42FDBF0CD}</x14:id>
+          <x14:id>{B2E44E2B-44FC-408C-822C-98FD1E6137EF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9496,7 +9518,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4F568C50-42C0-4437-A6DF-15E51CD108B7}</x14:id>
+          <x14:id>{46E98D0F-83BC-4B6B-BFB9-3CF60C76A43C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9510,7 +9532,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{70AAC946-88EC-45F5-8254-4A632725D3A0}</x14:id>
+          <x14:id>{A1701F37-5E2E-470B-B0AA-BC72C949E852}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9533,12 +9555,12 @@
     <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{16777083-D46A-4A2E-9A5C-416BF63F492B}</x14:id>
+          <x14:id>{2BE1A891-F2F7-4812-ABDD-32951B57328E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9547,12 +9569,12 @@
     <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{470DCB18-DFF0-49EB-9619-69A5708C1924}</x14:id>
+          <x14:id>{C16B8F12-DDF2-4752-9DE1-B6F3756CC259}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9566,7 +9588,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{73978A84-0E6F-4173-B1D1-3956F6E9ACB8}</x14:id>
+          <x14:id>{01FB4B42-9DA8-4E73-A0D8-3A97D4500644}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9580,7 +9602,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6700395B-2227-4488-8890-72EDEDA6AD13}</x14:id>
+          <x14:id>{1FA96A3D-5089-4B2E-B528-824B8F9B5989}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9603,12 +9625,12 @@
     <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0F9DB3F6-A078-48B0-9353-F14D04A833DF}</x14:id>
+          <x14:id>{474008DB-B256-42D1-9AC1-B833374D57E9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9617,12 +9639,12 @@
     <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F2E2449E-EA67-4BBE-AE62-6AD56B71B24F}</x14:id>
+          <x14:id>{82CCA18D-3D87-44DD-9CB9-D173A4404ADB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9636,7 +9658,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03DAFD22-49BD-461D-B553-68E9D3CBE70D}</x14:id>
+          <x14:id>{1F7D45C0-7594-4DBD-8909-9CF9271BCBA0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9650,7 +9672,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{901D6463-907E-4E62-96CA-D9A27DB2AF6B}</x14:id>
+          <x14:id>{AAD33D09-DC79-4965-BEB3-0B10BEF4E0C1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9673,12 +9695,12 @@
     <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{398ED8FF-69B2-4D8C-B38E-A1C12C0DCB82}</x14:id>
+          <x14:id>{13F04B87-2373-408A-B535-8DB2A8CFEE7A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9687,12 +9709,12 @@
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5DCD83E5-4D45-46E0-B949-7599F22A82F5}</x14:id>
+          <x14:id>{1D6D7C94-AAEA-4066-B4B4-25311DEB8CA4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9706,7 +9728,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D7B07867-6DAC-40E0-B11A-68C2A205A497}</x14:id>
+          <x14:id>{951A9D64-BCA1-471E-A88B-AF88EE37B8A6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9720,7 +9742,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B645C656-4F4F-49B4-971B-BF297D87E105}</x14:id>
+          <x14:id>{CAE22745-A335-4941-B12E-56F8B84237EA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9743,12 +9765,12 @@
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A2AD65DC-B6F7-4E61-ABF2-B4B84B4C3AE4}</x14:id>
+          <x14:id>{66ACDAE8-CA1A-4F99-AA3E-BC57276DEB2E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9757,12 +9779,12 @@
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FCD352F6-1C61-41A3-917F-1B081E1BCABE}</x14:id>
+          <x14:id>{3B8CC3C2-A8F3-4D21-A612-7FE809172EF3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9776,7 +9798,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F9D286CD-8D61-47F2-993E-AEA75CF9D02C}</x14:id>
+          <x14:id>{ED7E88D1-EA08-467E-8352-0D234275D475}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9790,7 +9812,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AB374F52-35F0-471E-8030-634E7BE16ABF}</x14:id>
+          <x14:id>{A212E8E1-401A-48B5-8E96-F2798625D92D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9813,12 +9835,12 @@
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{345071F6-5F9E-4F93-A2CC-DB7D238D8B4A}</x14:id>
+          <x14:id>{13FE5956-DB08-41B2-93E5-67B106902153}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9827,12 +9849,12 @@
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E743C179-0ED8-4350-A164-584D8D06F412}</x14:id>
+          <x14:id>{DA06D031-6A0D-4177-AA06-E65DE44B870A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9846,7 +9868,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2BE239AF-63BF-4429-906B-0B7F930B884D}</x14:id>
+          <x14:id>{511DC539-E71E-45C5-A445-EF52850F2B6E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9860,7 +9882,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B7D3203C-4958-4DA3-86DD-CD6BEC07055F}</x14:id>
+          <x14:id>{84BE2DD1-F8B1-4B1A-AA76-9C80A0869DF5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9883,12 +9905,12 @@
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5CBABB8A-11FF-40EA-967A-DA816F436D63}</x14:id>
+          <x14:id>{F6F4CD50-5044-4C3E-95FB-EFBB070E810B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9897,12 +9919,12 @@
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9F500FB9-4612-4F9F-A052-36C58F5C7B8C}</x14:id>
+          <x14:id>{AFFBB6FF-FA3C-4B67-BBCF-241E8A1AA899}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9916,7 +9938,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{41B61FB3-A1C3-4137-8783-E86AD325B675}</x14:id>
+          <x14:id>{5438E62D-6989-4CBB-B691-776FCC3FF30C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9930,7 +9952,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{832182AC-4C68-48B5-8AC8-274E4F85EAA7}</x14:id>
+          <x14:id>{101C1DE8-AE77-40C3-BFC3-D980B6FB5523}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9953,12 +9975,12 @@
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="31"/>
         <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BC5C9DBE-145B-41E3-B50A-5867D83A8AEA}</x14:id>
+          <x14:id>{967E34A8-58C3-41F7-BF76-F7A692A6926B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9967,12 +9989,12 @@
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="51"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AC2B0FC3-6C02-428C-9829-9099623F9072}</x14:id>
+          <x14:id>{9B5F27EA-2587-44DF-AA7D-3EE198AE24AA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9986,7 +10008,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB1EEB73-9291-481A-911E-FC8B54FFD280}</x14:id>
+          <x14:id>{B611F02D-7C1D-4E6A-A710-FCA47604EA38}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10000,7 +10022,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40E13522-27D4-4F9F-9BD2-AB71E45E4A33}</x14:id>
+          <x14:id>{A2BB0E94-A905-44E3-9858-2FDC22A58A26}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10020,15 +10042,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E45:E47 E61:E63 E49:E51 E41:E43 E57:E59 E17:E19 E9:E11 E65:E67 E33:E35 E53:E55 E25:E27 E21:E23 E5:E7 E13:E15 E37:E39 E29:E31 E109:E111 E125:E127 E113:E115 E105:E107 E121:E123 E81:E83 E73:E75 E129:E130 E97:E99 E117:E119 E89:E91 E85:E87 E69:E71 E77:E79 E101:E103 E93:E95" xr:uid="{9A7EC051-1C65-4173-8E94-51DD6845AABA}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E41:E43 E49:E51 E65:E67 E25:E27 E57:E59 E37:E39 E5:E7 E21:E23 E53:E55 E29:E31 E61:E63 E13:E15 E45:E47 E9:E11 E33:E35 E17:E19 E105:E107 E113:E115 E129:E130 E89:E91 E121:E123 E101:E103 E69:E71 E85:E87 E117:E119 E93:E95 E125:E127 E77:E79 E109:E111 E73:E75 E97:E99 E81:E83" xr:uid="{9A7EC051-1C65-4173-8E94-51DD6845AABA}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{880A8014-30DB-4106-B469-4871D04DE643}">
       <formula1>"Operador de micro,Dev Front-End,Dev Back-End,Dev Java,Dev C#,Dev Mobile,Técnico"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E36 E52 E60 E44 E20 E28 E48 E64 E56 E12 E16 E32 E24 E40 E8 E68 E100 E116 E124 E108 E84 E92 E112 E128 E120 E76 E80 E96 E88 E104 E72" xr:uid="{28001C14-990A-4E33-A4B4-411BE2275EAE}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E8 E12 E16 E20 E24 E28 E32 E36 E40 E44 E48 E52 E56 E60 E64 E68 E72 E76 E80 E84 E88 E92 E96 E100 E104 E108 E112 E116 E120 E124 E128" xr:uid="{73656AB2-892F-4B99-81E2-4B0C16F87002}">
       <formula1>0</formula1>
-      <formula2>50</formula2>
+      <formula2>51</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10043,7 +10065,7 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10059,7 +10081,7 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10101,13 +10123,13 @@
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3BB3493F-C270-4C73-AA6E-583BA36821DC}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{72F84237-11EA-430E-9E1D-ED8D0A871E94}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10117,13 +10139,13 @@
           <xm:sqref>E7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5CB5F52A-D7BE-47D9-B561-E3C10E52F6DB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{C1E5A47E-A447-4578-B3C7-11782FAF3A27}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10133,7 +10155,7 @@
           <xm:sqref>E8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{89B33B3F-C246-49C4-814A-ACBC4495DC43}">
+          <x14:cfRule type="dataBar" id="{6FC1A08A-E14C-4BDB-BCC6-599B37146608}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10149,7 +10171,7 @@
           <xm:sqref>E9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{637424B2-A900-413A-BCFE-60670B42DEFE}">
+          <x14:cfRule type="dataBar" id="{0DB1B273-6D96-4F4F-8DBF-7E8ABA5FB41F}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10165,13 +10187,13 @@
           <xm:sqref>E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{43673551-A257-41AA-8CB7-8455D41CAF60}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{C8981956-9F90-427D-ACE3-11C13F1B164A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10181,13 +10203,13 @@
           <xm:sqref>E11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{23C45FEC-4450-4B7C-AA17-FE79F7698721}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{51EEB71E-752B-4BC3-9F04-68E996E33ABB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10197,7 +10219,7 @@
           <xm:sqref>E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C6CBFFB-BC15-4D51-9A7C-8B028FC7EF93}">
+          <x14:cfRule type="dataBar" id="{8150CC09-6AEE-4C87-B8C1-8E312B4B9DFC}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10213,7 +10235,7 @@
           <xm:sqref>E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{878EBE30-229B-4235-B12E-B6274E73330A}">
+          <x14:cfRule type="dataBar" id="{75385F78-F314-4811-BD4E-0D1EF5A819A8}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10229,13 +10251,13 @@
           <xm:sqref>E14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A55E1EF9-D58F-4674-9CDD-D1C00678198E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{2A7DB7EC-A394-417A-82E7-1621BDBB54A5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10245,13 +10267,13 @@
           <xm:sqref>E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D1051BEC-B32A-4480-AB66-5DDCBDAF1DC4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{DCC5824F-ED4D-458E-9008-C1BFEFDC5FD0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10261,7 +10283,7 @@
           <xm:sqref>E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0EE462ED-8527-4057-B639-B91ED62645B0}">
+          <x14:cfRule type="dataBar" id="{E2C87023-4044-4C4A-A09C-85AFA61FA157}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10277,7 +10299,7 @@
           <xm:sqref>E17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C022BD35-E26A-4EAE-8D72-ED4DA812321D}">
+          <x14:cfRule type="dataBar" id="{0BC37EC3-AF7A-4969-9B59-2B67562A80EE}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10293,13 +10315,13 @@
           <xm:sqref>E18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0FF8A68E-59C3-4EC0-9980-54086A6E853B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{E30674A6-A46A-4CD9-9BA7-00C4BEF7E451}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10309,13 +10331,13 @@
           <xm:sqref>E19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1C2A7F23-6D38-4232-AACA-A12052645A50}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{1CE3D5E9-5306-42DA-85E3-714B20D59E73}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10325,7 +10347,7 @@
           <xm:sqref>E20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63EE12B3-23A0-4D7B-B5E6-81F4B94C5D1E}">
+          <x14:cfRule type="dataBar" id="{F1F6790B-B4C3-438F-B19E-60BAC03601EC}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10341,7 +10363,7 @@
           <xm:sqref>E21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98F15015-B4B0-4EFF-80EB-DCCBFECF6341}">
+          <x14:cfRule type="dataBar" id="{D59E7576-FFAD-489E-BE78-4C8A23066616}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10357,13 +10379,13 @@
           <xm:sqref>E22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19E2E26E-E26B-419A-9A81-AB28A106831A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{AC854A57-7B9C-4F6B-B254-2EF67A8C6961}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10373,13 +10395,13 @@
           <xm:sqref>E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF586085-240A-4191-97B4-8ABEBE1520CC}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{184503E5-1F64-4DF4-98A4-C45200A626CC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10389,7 +10411,7 @@
           <xm:sqref>E24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C029AFBA-B716-4AD4-82D1-E517A669EF2F}">
+          <x14:cfRule type="dataBar" id="{124DE221-E8DA-4580-8A54-5DC4E685B606}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10405,7 +10427,7 @@
           <xm:sqref>E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7386420C-7934-4ECB-B3A6-F83E80D6EDCE}">
+          <x14:cfRule type="dataBar" id="{F5538760-6190-4209-9504-1A9DC750A422}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10421,13 +10443,13 @@
           <xm:sqref>E26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{30750581-1B5B-4A66-8755-9DBEC0E479D3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{4398D2F0-C416-477D-9FDB-C8C996BE146D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10437,13 +10459,13 @@
           <xm:sqref>E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D5125B41-1D78-4D8D-A1FF-D7B2C3496ED7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{8EABE855-3CE1-4DF8-BCA3-4CEE930BDA2D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10453,7 +10475,7 @@
           <xm:sqref>E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04DBC2E2-FAFB-4A41-8604-56C3069A3E02}">
+          <x14:cfRule type="dataBar" id="{9E4FC2AA-B283-491A-9DAB-1CD2AEC5F674}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10469,7 +10491,7 @@
           <xm:sqref>E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{64435C6C-5BED-4489-A521-EE9454A893FE}">
+          <x14:cfRule type="dataBar" id="{5626FC76-0D05-49E7-8224-C9D42BEB88D2}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10485,13 +10507,13 @@
           <xm:sqref>E30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{636252BB-B7B1-4620-B9A4-1B2973986EB5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{B8BF08D3-BF80-4CCE-BAD1-BF2C21B59FB4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10501,13 +10523,13 @@
           <xm:sqref>E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B470C119-A8E0-4652-AEEA-199C8352B68F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{78BC5C5E-6079-4B42-A194-22BDA0203423}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10517,7 +10539,7 @@
           <xm:sqref>E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5CF74CE6-1B1F-4A35-9241-0FFD0CEDF4D9}">
+          <x14:cfRule type="dataBar" id="{1B36F1F7-091A-44B1-85AA-C0862EA5F253}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10533,7 +10555,7 @@
           <xm:sqref>E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA167C6A-4CD9-4C73-9128-556F453C9FE2}">
+          <x14:cfRule type="dataBar" id="{1978EBDD-49FA-4640-956D-4F44CD32392B}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10549,13 +10571,13 @@
           <xm:sqref>E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3AC2A98E-FA4D-461F-BC8F-14013B7316EE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{EC053061-D16A-4B30-B1B1-3C0EB0B60D74}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10565,13 +10587,13 @@
           <xm:sqref>E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CDC423A5-8F17-4DE7-A029-16BF7EB5153D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{68FD2B97-0BB4-4974-9E7A-1605ACA78607}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10581,7 +10603,7 @@
           <xm:sqref>E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1BC73681-4BE3-42B7-877F-3C2DF7582B5D}">
+          <x14:cfRule type="dataBar" id="{0D915EF7-1433-429E-9B95-EA57BE80BB3E}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10597,7 +10619,7 @@
           <xm:sqref>E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F29008F9-EE46-41C8-AC51-ECA5DFB7B378}">
+          <x14:cfRule type="dataBar" id="{E42E97A0-79F9-4D34-8FEC-B09F0A3E939C}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10613,13 +10635,13 @@
           <xm:sqref>E38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F763AB4B-A7EA-45F9-9475-EC5AD1C85A24}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{228E3091-DADF-4B56-9079-A45DA70CE4BE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10629,13 +10651,13 @@
           <xm:sqref>E39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A995022-679A-43C6-AC7F-DAE2A0FFE142}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{EC69B20B-7ECE-4E27-8F55-6CDAE87383D3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10645,7 +10667,7 @@
           <xm:sqref>E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{274921EC-CF33-457B-B23A-B073D964580E}">
+          <x14:cfRule type="dataBar" id="{71565A49-DF45-429B-989C-C72D2179D009}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10661,7 +10683,7 @@
           <xm:sqref>E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18B29CB6-0C5D-4B05-8B1C-907E3FE0FF9F}">
+          <x14:cfRule type="dataBar" id="{9A65518C-52A6-4425-9FBC-B3D9A57FD44D}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10677,13 +10699,13 @@
           <xm:sqref>E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CE5556F5-1041-47B1-8537-3F262045CF90}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{D62C99C5-11A6-417F-9FB6-78E185054F9B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10693,13 +10715,13 @@
           <xm:sqref>E43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1EF2E6F2-9275-4EC8-82C0-252B0E9CF99C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{C4BE5658-3211-40A3-A71C-713FDEC2B086}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10709,7 +10731,7 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C27B15DB-14BA-4CA8-A751-31544104268A}">
+          <x14:cfRule type="dataBar" id="{3581337F-35F3-4C11-B305-4303C1BF3C36}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10725,7 +10747,7 @@
           <xm:sqref>E45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5ED69CF0-BDEE-47EB-811D-DFAB29448B24}">
+          <x14:cfRule type="dataBar" id="{BB0419A6-E149-426F-8C40-4619851DE7F7}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10741,13 +10763,13 @@
           <xm:sqref>E46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CADE784C-25C1-470C-BFCC-3767FFEAA59A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{7C1DB01E-59E2-403E-9B31-92E3BDB3B65F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10757,13 +10779,13 @@
           <xm:sqref>E47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD28F5D6-E233-41A8-A6AB-CD4973A57BE2}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{95543157-640E-45CC-872E-9BBE73ABF677}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10773,7 +10795,7 @@
           <xm:sqref>E48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B1DB1C3B-E6F3-4EFD-8F2F-B92DCAF99B2E}">
+          <x14:cfRule type="dataBar" id="{DB8EA338-78B3-4198-9EB3-A190795E929D}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10789,7 +10811,7 @@
           <xm:sqref>E49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{17BB1265-B5AF-4972-9850-1ED5D37E48F0}">
+          <x14:cfRule type="dataBar" id="{4D52DDED-B62B-4C22-B983-AB1915FB5A67}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10805,13 +10827,13 @@
           <xm:sqref>E50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A35556F8-920D-4CA2-8783-0FF33DA4BF94}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{3C6DDF19-175C-4661-916D-96FD0498FBDF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10821,13 +10843,13 @@
           <xm:sqref>E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2DDEE1E4-E540-4B25-A3B0-DC6BFB4A8868}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{9FEA4A77-7BE5-447D-8938-C6DD6D10B699}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10837,7 +10859,7 @@
           <xm:sqref>E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E4946E91-90C7-4814-864C-63A8F604F08A}">
+          <x14:cfRule type="dataBar" id="{1CDB9671-56C9-4044-9459-C3A7D83DB796}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10853,7 +10875,7 @@
           <xm:sqref>E53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31263F73-5660-4D5C-A3C3-AB49C5E997E3}">
+          <x14:cfRule type="dataBar" id="{B09921FF-BCBD-4A44-A019-4DBFADA5F6B1}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10869,13 +10891,13 @@
           <xm:sqref>E54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A67C69A-53BD-4162-AEC8-08DB4A2EF50E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{8F77DF04-56AE-4E9F-A777-F60603D34DCF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10885,13 +10907,13 @@
           <xm:sqref>E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{613416E8-7E08-4263-9998-49EA85F9BDA6}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{C2A510FA-0F9B-4DD6-9DD1-7AD42F88B556}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10901,7 +10923,7 @@
           <xm:sqref>E56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35AFA53F-7599-490A-95ED-B79C3D5121A5}">
+          <x14:cfRule type="dataBar" id="{E5E151CB-9AF3-42FA-8CF9-0E1677539F65}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10917,7 +10939,7 @@
           <xm:sqref>E57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{24736782-D28F-4B30-8BFA-AED056F322FD}">
+          <x14:cfRule type="dataBar" id="{E96CE71E-5B63-4D9F-A1F4-EA8C8886DD4E}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10933,13 +10955,13 @@
           <xm:sqref>E58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C1277F7-2723-49A0-BC9A-7108184F0649}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{9DC8B4AC-4F2F-42AA-A80D-2F462D9DDCB1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10949,13 +10971,13 @@
           <xm:sqref>E59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6663BBFC-3CDF-4F8D-BD1E-6B2E8FA2356B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{1E7F7D19-AD2C-4518-A175-F5269C80402B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -10965,7 +10987,7 @@
           <xm:sqref>E60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA0F8B25-556F-4F66-921C-A3074AC9663B}">
+          <x14:cfRule type="dataBar" id="{B06C9110-2548-40CF-9608-133085105FB2}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10981,7 +11003,7 @@
           <xm:sqref>E61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D0FBD271-7F17-4BB6-9762-34BF4EEDC8A3}">
+          <x14:cfRule type="dataBar" id="{3C8401B9-A6F2-48E3-84D0-63EE45CDB6CE}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10997,13 +11019,13 @@
           <xm:sqref>E62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{860F33D9-0DE1-47E3-A8AC-92C34F35D3C8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{773EB569-CE67-4692-99C2-45C1AF036777}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11013,13 +11035,13 @@
           <xm:sqref>E63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9B7C0E9F-143E-4F35-AC57-8EE764A4F7F1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{0FF9A74E-7F8B-49D9-BDE9-FAAAC496F303}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11029,7 +11051,7 @@
           <xm:sqref>E64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42009C81-5749-4555-BD9F-57CFC0304D53}">
+          <x14:cfRule type="dataBar" id="{9CD01CDE-7285-4146-88DA-55AD03908745}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11045,7 +11067,7 @@
           <xm:sqref>E65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0F559BDC-17C2-4062-9B2C-EFF0A3AFF5BD}">
+          <x14:cfRule type="dataBar" id="{76C2D8A1-94EF-4DF9-8268-6B5F1811F653}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11061,13 +11083,13 @@
           <xm:sqref>E66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{337666E1-EABF-4BB7-9D43-757283E7D5E7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{282590A9-EBBB-42E6-B93E-1086E1A409DF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11077,13 +11099,13 @@
           <xm:sqref>E67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1DB52848-78FE-4A69-9951-FF6568B0E55B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{168FE903-5B46-458D-8B9A-00B63591BAA3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11093,7 +11115,7 @@
           <xm:sqref>E68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9EA614E4-C3C2-4192-90A5-897E6C4A46F0}">
+          <x14:cfRule type="dataBar" id="{8226FDC1-6B57-4536-AAEC-82235EEC0E03}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11109,7 +11131,7 @@
           <xm:sqref>E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95D3F798-3B08-42D0-ACE3-26C025A55385}">
+          <x14:cfRule type="dataBar" id="{7666DF13-9B86-44FC-B640-1A4C66A2CC96}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11125,13 +11147,13 @@
           <xm:sqref>E70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2D973779-AFCB-4119-9FA1-C283758C7A29}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{3B411D03-2C1E-4CA2-BA8E-7B52A342CFBD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11141,13 +11163,13 @@
           <xm:sqref>E71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B320F6CA-75FD-4DBE-89DE-D87802F8AFC4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{1583AE06-ABBD-4D31-8066-16814DC58B41}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11157,7 +11179,7 @@
           <xm:sqref>E72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E2D1A81E-E5CE-43D5-B4B2-7E5449276433}">
+          <x14:cfRule type="dataBar" id="{8D144320-A965-475B-AC71-608953933863}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11173,7 +11195,7 @@
           <xm:sqref>E73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{268FE700-4779-4D4A-BF1F-590F5AAA4C14}">
+          <x14:cfRule type="dataBar" id="{24A90018-C7D2-4624-BCF8-064C465A74BF}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11189,13 +11211,13 @@
           <xm:sqref>E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D193835B-D6D9-49C7-9505-CFEDD2581C37}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{35A4F83C-D9F0-44F1-879E-02811472A911}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11205,13 +11227,13 @@
           <xm:sqref>E75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD98AF2C-AAB1-4317-80B2-FCCB7A0D774D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{72ED520B-9964-498C-B4C1-66FFAC3E0EB5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11221,7 +11243,7 @@
           <xm:sqref>E76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D9E6585-8662-49F8-98A0-0B21F518DC2A}">
+          <x14:cfRule type="dataBar" id="{5348C449-D177-4E2C-8A3F-80E597E4E0FA}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11237,7 +11259,7 @@
           <xm:sqref>E77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{27B7BE41-0E2A-42E0-9ABF-113D3C61B52C}">
+          <x14:cfRule type="dataBar" id="{0D34486F-8B2A-41B6-805E-8AB9AB44BDEE}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11253,13 +11275,13 @@
           <xm:sqref>E78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75F90F2E-76C5-4D5B-B2D0-F4F07F7A5B40}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{DADF6AA8-DFCF-44E6-A05F-C11979926342}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11269,13 +11291,13 @@
           <xm:sqref>E79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82406B3A-35EA-4F2D-9A9B-D32CF520BFBB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{C2EE93F8-E8F9-4106-8DB9-9ED5E53A2DAC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11285,7 +11307,7 @@
           <xm:sqref>E80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D832445F-4D49-49CA-A917-AF4D6C4BD82F}">
+          <x14:cfRule type="dataBar" id="{863ADA50-E631-4193-8254-937AE041FFC3}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11301,7 +11323,7 @@
           <xm:sqref>E81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB71E4CF-4A44-4AEE-A5AB-C34C41B86991}">
+          <x14:cfRule type="dataBar" id="{F56BDBAB-CFB3-4778-82DA-4B470E056013}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11317,13 +11339,13 @@
           <xm:sqref>E82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8BCD6F48-E159-431A-AA24-F504BA15784D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{B299E357-F938-41FA-9AA2-A7EAEF9D4C80}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11333,13 +11355,13 @@
           <xm:sqref>E83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EA58A79A-07CC-4D20-A2DF-BEBAAE22AEFD}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{2C4B909B-5532-4CAB-89C3-E41C81CCDBD7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11349,7 +11371,7 @@
           <xm:sqref>E84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7B4D4C41-84AA-4FA8-A905-EA63E34F91C7}">
+          <x14:cfRule type="dataBar" id="{C1A83523-2A79-4454-93D8-E667547EAB28}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11365,7 +11387,7 @@
           <xm:sqref>E85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{789B30DC-88F6-428E-986C-23D0EFB253C3}">
+          <x14:cfRule type="dataBar" id="{38D5E134-8120-4523-920A-B28DEF170221}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11381,13 +11403,13 @@
           <xm:sqref>E86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A5422B1A-BCE1-4BA4-82D3-13038F0B14C3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{ACA8D522-DD55-491E-BD6C-3FED1CE59F7E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11397,13 +11419,13 @@
           <xm:sqref>E87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C56F660B-8CA6-47BF-978A-A980BAD6734D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{C1A19558-6245-4938-A174-BA1BD2A02016}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11413,7 +11435,7 @@
           <xm:sqref>E88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C2A34FC0-47C1-4F9B-B498-4EF09E2554DE}">
+          <x14:cfRule type="dataBar" id="{3CC85252-DA56-40AC-9699-B068E585BA3C}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11429,7 +11451,7 @@
           <xm:sqref>E89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{779114CA-85C7-4F7B-A3BA-B4252290DAF2}">
+          <x14:cfRule type="dataBar" id="{EAAECC13-3FB6-498A-AE55-F16D6F0DE1A0}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11445,13 +11467,13 @@
           <xm:sqref>E90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E4D8D083-3745-42D8-A0FF-5E2E1B9E6415}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{F3E18565-75D4-4974-B9F6-B1BC61B1CAB3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11461,13 +11483,13 @@
           <xm:sqref>E91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A4D966C-5CA5-459D-AE37-0185308F51A4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{37D1B22F-8103-4B3D-A118-AAF14F8DD5B0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11477,7 +11499,7 @@
           <xm:sqref>E92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7B228496-FC75-4E12-8BC0-C30913F7B545}">
+          <x14:cfRule type="dataBar" id="{8AC271FA-26D0-4860-BA71-F8A755DAFEF2}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11493,7 +11515,7 @@
           <xm:sqref>E93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BAB6BBD5-81AF-43A0-9625-BD1B99D76BB4}">
+          <x14:cfRule type="dataBar" id="{D13D50F8-F1AB-46FA-BACA-3221A209A21A}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11509,13 +11531,13 @@
           <xm:sqref>E94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{493C9701-65E3-4E2B-B053-A8C96A5F249E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{5931AFF6-FFFF-426A-B684-6FECFDE688A3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11525,13 +11547,13 @@
           <xm:sqref>E95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A4FA252F-9E36-4069-BF5C-DCDA4BB62960}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{FE153B44-7C8D-4B99-B153-B2156F7CE3ED}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11541,7 +11563,7 @@
           <xm:sqref>E96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FC7D78FB-58CB-4E15-A0CD-8A0228C1A64D}">
+          <x14:cfRule type="dataBar" id="{911B358B-FA81-4699-9953-91F3278046A9}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11557,7 +11579,7 @@
           <xm:sqref>E97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{709F7E84-9B06-463C-B361-FA20E339B529}">
+          <x14:cfRule type="dataBar" id="{D27C0E61-81F8-46D7-9E6D-C4889B7F54E9}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11573,13 +11595,13 @@
           <xm:sqref>E98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B0AB87AB-33DD-49B2-8096-D38E436B5CBA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{45F7193F-AA5C-4506-BCD8-B20C09C059E1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11589,13 +11611,13 @@
           <xm:sqref>E99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B506AA58-2929-4428-9ABC-53D42FDBF0CD}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{B2E44E2B-44FC-408C-822C-98FD1E6137EF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11605,7 +11627,7 @@
           <xm:sqref>E100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4F568C50-42C0-4437-A6DF-15E51CD108B7}">
+          <x14:cfRule type="dataBar" id="{46E98D0F-83BC-4B6B-BFB9-3CF60C76A43C}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11621,7 +11643,7 @@
           <xm:sqref>E101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{70AAC946-88EC-45F5-8254-4A632725D3A0}">
+          <x14:cfRule type="dataBar" id="{A1701F37-5E2E-470B-B0AA-BC72C949E852}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11637,13 +11659,13 @@
           <xm:sqref>E102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{16777083-D46A-4A2E-9A5C-416BF63F492B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{2BE1A891-F2F7-4812-ABDD-32951B57328E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11653,13 +11675,13 @@
           <xm:sqref>E103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{470DCB18-DFF0-49EB-9619-69A5708C1924}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{C16B8F12-DDF2-4752-9DE1-B6F3756CC259}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11669,7 +11691,7 @@
           <xm:sqref>E104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{73978A84-0E6F-4173-B1D1-3956F6E9ACB8}">
+          <x14:cfRule type="dataBar" id="{01FB4B42-9DA8-4E73-A0D8-3A97D4500644}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11685,7 +11707,7 @@
           <xm:sqref>E105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6700395B-2227-4488-8890-72EDEDA6AD13}">
+          <x14:cfRule type="dataBar" id="{1FA96A3D-5089-4B2E-B528-824B8F9B5989}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11701,13 +11723,13 @@
           <xm:sqref>E106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0F9DB3F6-A078-48B0-9353-F14D04A833DF}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{474008DB-B256-42D1-9AC1-B833374D57E9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11717,13 +11739,13 @@
           <xm:sqref>E107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F2E2449E-EA67-4BBE-AE62-6AD56B71B24F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{82CCA18D-3D87-44DD-9CB9-D173A4404ADB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11733,7 +11755,7 @@
           <xm:sqref>E108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03DAFD22-49BD-461D-B553-68E9D3CBE70D}">
+          <x14:cfRule type="dataBar" id="{1F7D45C0-7594-4DBD-8909-9CF9271BCBA0}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11749,7 +11771,7 @@
           <xm:sqref>E109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{901D6463-907E-4E62-96CA-D9A27DB2AF6B}">
+          <x14:cfRule type="dataBar" id="{AAD33D09-DC79-4965-BEB3-0B10BEF4E0C1}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11765,13 +11787,13 @@
           <xm:sqref>E110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{398ED8FF-69B2-4D8C-B38E-A1C12C0DCB82}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{13F04B87-2373-408A-B535-8DB2A8CFEE7A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11781,13 +11803,13 @@
           <xm:sqref>E111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5DCD83E5-4D45-46E0-B949-7599F22A82F5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{1D6D7C94-AAEA-4066-B4B4-25311DEB8CA4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11797,7 +11819,7 @@
           <xm:sqref>E112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D7B07867-6DAC-40E0-B11A-68C2A205A497}">
+          <x14:cfRule type="dataBar" id="{951A9D64-BCA1-471E-A88B-AF88EE37B8A6}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11813,7 +11835,7 @@
           <xm:sqref>E113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B645C656-4F4F-49B4-971B-BF297D87E105}">
+          <x14:cfRule type="dataBar" id="{CAE22745-A335-4941-B12E-56F8B84237EA}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11829,13 +11851,13 @@
           <xm:sqref>E114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A2AD65DC-B6F7-4E61-ABF2-B4B84B4C3AE4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{66ACDAE8-CA1A-4F99-AA3E-BC57276DEB2E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11845,13 +11867,13 @@
           <xm:sqref>E115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FCD352F6-1C61-41A3-917F-1B081E1BCABE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{3B8CC3C2-A8F3-4D21-A612-7FE809172EF3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11861,7 +11883,7 @@
           <xm:sqref>E116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F9D286CD-8D61-47F2-993E-AEA75CF9D02C}">
+          <x14:cfRule type="dataBar" id="{ED7E88D1-EA08-467E-8352-0D234275D475}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11877,7 +11899,7 @@
           <xm:sqref>E117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB374F52-35F0-471E-8030-634E7BE16ABF}">
+          <x14:cfRule type="dataBar" id="{A212E8E1-401A-48B5-8E96-F2798625D92D}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11893,13 +11915,13 @@
           <xm:sqref>E118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{345071F6-5F9E-4F93-A2CC-DB7D238D8B4A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{13FE5956-DB08-41B2-93E5-67B106902153}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11909,13 +11931,13 @@
           <xm:sqref>E119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E743C179-0ED8-4350-A164-584D8D06F412}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{DA06D031-6A0D-4177-AA06-E65DE44B870A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11925,7 +11947,7 @@
           <xm:sqref>E120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2BE239AF-63BF-4429-906B-0B7F930B884D}">
+          <x14:cfRule type="dataBar" id="{511DC539-E71E-45C5-A445-EF52850F2B6E}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11941,7 +11963,7 @@
           <xm:sqref>E121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B7D3203C-4958-4DA3-86DD-CD6BEC07055F}">
+          <x14:cfRule type="dataBar" id="{84BE2DD1-F8B1-4B1A-AA76-9C80A0869DF5}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11957,13 +11979,13 @@
           <xm:sqref>E122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5CBABB8A-11FF-40EA-967A-DA816F436D63}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{F6F4CD50-5044-4C3E-95FB-EFBB070E810B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11973,13 +11995,13 @@
           <xm:sqref>E123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9F500FB9-4612-4F9F-A052-36C58F5C7B8C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{AFFBB6FF-FA3C-4B67-BBCF-241E8A1AA899}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -11989,7 +12011,7 @@
           <xm:sqref>E124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{41B61FB3-A1C3-4137-8783-E86AD325B675}">
+          <x14:cfRule type="dataBar" id="{5438E62D-6989-4CBB-B691-776FCC3FF30C}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12005,7 +12027,7 @@
           <xm:sqref>E125</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{832182AC-4C68-48B5-8AC8-274E4F85EAA7}">
+          <x14:cfRule type="dataBar" id="{101C1DE8-AE77-40C3-BFC3-D980B6FB5523}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12021,13 +12043,13 @@
           <xm:sqref>E126</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BC5C9DBE-145B-41E3-B50A-5867D83A8AEA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>30</xm:f>
+          <x14:cfRule type="dataBar" id="{967E34A8-58C3-41F7-BF76-F7A692A6926B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>31</xm:f>
               </x14:cfvo>
               <x14:borderColor theme="1"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -12037,13 +12059,13 @@
           <xm:sqref>E127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AC2B0FC3-6C02-428C-9829-9099623F9072}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>50</xm:f>
+          <x14:cfRule type="dataBar" id="{9B5F27EA-2587-44DF-AA7D-3EE198AE24AA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>51</xm:f>
               </x14:cfvo>
               <x14:borderColor rgb="FF000000"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -12053,7 +12075,7 @@
           <xm:sqref>E128</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CB1EEB73-9291-481A-911E-FC8B54FFD280}">
+          <x14:cfRule type="dataBar" id="{B611F02D-7C1D-4E6A-A710-FCA47604EA38}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12069,7 +12091,7 @@
           <xm:sqref>E129</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40E13522-27D4-4F9F-9BD2-AB71E45E4A33}">
+          <x14:cfRule type="dataBar" id="{A2BB0E94-A905-44E3-9858-2FDC22A58A26}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/Sistema-RPG-pontuação.xlsx
+++ b/Sistema-RPG-pontuação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF39680-1CF6-4731-8317-1158FB78D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B36B8F-3C6F-463C-A924-C43B95C67F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CEE89D8-85CA-487D-971C-6AFFD433DBC3}"/>
   </bookViews>
@@ -298,9 +298,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,11 +309,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="124">
     <dxf>
       <font>
         <b/>
@@ -1526,6 +1526,66 @@
       <fill>
         <gradientFill degree="90">
           <stop position="0">
+            <color rgb="FF002060"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF002060"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFC00000"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFC00000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
             <color theme="1"/>
           </stop>
           <stop position="0.5">
@@ -1546,6 +1606,46 @@
       <fill>
         <gradientFill degree="90">
           <stop position="0">
+            <color rgb="FF002060"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF002060"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
             <color rgb="FFC00000"/>
           </stop>
           <stop position="0.5">
@@ -1561,6 +1661,46 @@
       <font>
         <b/>
         <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="1" tint="0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF002060"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF002060"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
         <color auto="1"/>
       </font>
       <fill>
@@ -1586,6 +1726,46 @@
       <fill>
         <gradientFill degree="90">
           <stop position="0">
+            <color rgb="FFC00000"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFC00000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="1" tint="0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
             <color rgb="FF002060"/>
           </stop>
           <stop position="0.5">
@@ -1601,6 +1781,66 @@
       <font>
         <b/>
         <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFC00000"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFC00000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="1" tint="0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2166,6 +2406,66 @@
       <fill>
         <gradientFill degree="90">
           <stop position="0">
+            <color rgb="FF002060"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF002060"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFC00000"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFC00000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
             <color theme="1"/>
           </stop>
           <stop position="0.5">
@@ -2186,6 +2486,46 @@
       <fill>
         <gradientFill degree="90">
           <stop position="0">
+            <color rgb="FF002060"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF002060"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
             <color rgb="FFC00000"/>
           </stop>
           <stop position="0.5">
@@ -2201,6 +2541,46 @@
       <font>
         <b/>
         <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="1" tint="0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF002060"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF002060"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
         <color auto="1"/>
       </font>
       <fill>
@@ -2226,6 +2606,46 @@
       <fill>
         <gradientFill degree="90">
           <stop position="0">
+            <color rgb="FFC00000"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFC00000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="1" tint="0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
             <color rgb="FF002060"/>
           </stop>
           <stop position="0.5">
@@ -2241,6 +2661,66 @@
       <font>
         <b/>
         <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFC00000"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFC00000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="1" tint="0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2313,3046 +2793,6 @@
           </stop>
           <stop position="1">
             <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFC00000"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFC00000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF002060"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="4"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF002060"/>
           </stop>
         </gradientFill>
       </fill>
@@ -5669,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202746E6-1C35-43AB-B45A-D53CDC81F392}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5688,13 +3128,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
@@ -5703,24 +3143,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5766,8 +3206,8 @@
         <v>8</v>
       </c>
       <c r="C6" s="11" t="str">
-        <f>IF(AND(E3&gt;=20,E4&gt;=25),"Saudável",IF(OR(E3&gt;=10,E4&gt;=10),"Enfraquecido",IF(OR(E3&gt;0,E4&gt;0),"Morrendo",IF(OR(E3=0,E4=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E3=0,E4=0),"Morto",CONCATENATE(IF(E3&gt;=20,"Saudável",IF(E3&gt;=10,"Ferido","Morrendo"))," - ",IF(E4&gt;=25,"Forte",IF(E4&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>5</v>
@@ -5780,10 +3220,10 @@
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
@@ -5829,8 +3269,8 @@
         <v>8</v>
       </c>
       <c r="C10" s="11" t="str">
-        <f>IF(AND(E7&gt;=20,E8&gt;=25),"Saudável",IF(OR(E7&gt;=10,E8&gt;=10),"Enfraquecido",IF(OR(E7&gt;0,E8&gt;0),"Morrendo",IF(OR(E7=0,E8=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E7=0,E8=0),"Morto",CONCATENATE(IF(E7&gt;=20,"Saudável",IF(E7&gt;=10,"Ferido","Morrendo"))," - ",IF(E8&gt;=25,"Forte",IF(E8&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>5</v>
@@ -5843,10 +3283,10 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
@@ -5892,8 +3332,8 @@
         <v>8</v>
       </c>
       <c r="C14" s="11" t="str">
-        <f>IF(AND(E11&gt;=20,E12&gt;=25),"Saudável",IF(OR(E11&gt;=10,E12&gt;=10),"Enfraquecido",IF(OR(E11&gt;0,E12&gt;0),"Morrendo",IF(OR(E11=0,E12=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E11=0,E12=0),"Morto",CONCATENATE(IF(E11&gt;=20,"Saudável",IF(E11&gt;=10,"Ferido","Morrendo"))," - ",IF(E12&gt;=25,"Forte",IF(E12&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>5</v>
@@ -5906,10 +3346,10 @@
       <c r="A15" s="16">
         <v>4</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8" t="s">
         <v>3</v>
       </c>
@@ -5955,8 +3395,8 @@
         <v>8</v>
       </c>
       <c r="C18" s="11" t="str">
-        <f>IF(AND(E15&gt;=20,E16&gt;=25),"Saudável",IF(OR(E15&gt;=10,E16&gt;=10),"Enfraquecido",IF(OR(E15&gt;0,E16&gt;0),"Morrendo",IF(OR(E15=0,E16=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E15=0,E16=0),"Morto",CONCATENATE(IF(E15&gt;=20,"Saudável",IF(E15&gt;=10,"Ferido","Morrendo"))," - ",IF(E16&gt;=25,"Forte",IF(E16&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>5</v>
@@ -5969,10 +3409,10 @@
       <c r="A19" s="16">
         <v>5</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
@@ -6018,8 +3458,8 @@
         <v>8</v>
       </c>
       <c r="C22" s="11" t="str">
-        <f>IF(AND(E19&gt;=20,E20&gt;=25),"Saudável",IF(OR(E19&gt;=10,E20&gt;=10),"Enfraquecido",IF(OR(E19&gt;0,E20&gt;0),"Morrendo",IF(OR(E19=0,E20=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E19=0,E20=0),"Morto",CONCATENATE(IF(E19&gt;=20,"Saudável",IF(E19&gt;=10,"Ferido","Morrendo"))," - ",IF(E20&gt;=25,"Forte",IF(E20&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>5</v>
@@ -6032,10 +3472,10 @@
       <c r="A23" s="16">
         <v>6</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8" t="s">
         <v>3</v>
       </c>
@@ -6081,8 +3521,8 @@
         <v>8</v>
       </c>
       <c r="C26" s="11" t="str">
-        <f>IF(AND(E23&gt;=20,E24&gt;=25),"Saudável",IF(OR(E23&gt;=10,E24&gt;=10),"Enfraquecido",IF(OR(E23&gt;0,E24&gt;0),"Morrendo",IF(OR(E23=0,E24=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E23=0,E24=0),"Morto",CONCATENATE(IF(E23&gt;=20,"Saudável",IF(E23&gt;=10,"Ferido","Morrendo"))," - ",IF(E24&gt;=25,"Forte",IF(E24&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>5</v>
@@ -6095,10 +3535,10 @@
       <c r="A27" s="16">
         <v>7</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="8" t="s">
         <v>3</v>
       </c>
@@ -6144,8 +3584,8 @@
         <v>8</v>
       </c>
       <c r="C30" s="11" t="str">
-        <f>IF(AND(E27&gt;=20,E28&gt;=25),"Saudável",IF(OR(E27&gt;=10,E28&gt;=10),"Enfraquecido",IF(OR(E27&gt;0,E28&gt;0),"Morrendo",IF(OR(E27=0,E28=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E27=0,E28=0),"Morto",CONCATENATE(IF(E27&gt;=20,"Saudável",IF(E27&gt;=10,"Ferido","Morrendo"))," - ",IF(E28&gt;=25,"Forte",IF(E28&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>5</v>
@@ -6158,10 +3598,10 @@
       <c r="A31" s="16">
         <v>8</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="8" t="s">
         <v>3</v>
       </c>
@@ -6207,8 +3647,8 @@
         <v>8</v>
       </c>
       <c r="C34" s="11" t="str">
-        <f>IF(AND(E31&gt;=20,E32&gt;=25),"Saudável",IF(OR(E31&gt;=10,E32&gt;=10),"Enfraquecido",IF(OR(E31&gt;0,E32&gt;0),"Morrendo",IF(OR(E31=0,E32=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E31=0,E32=0),"Morto",CONCATENATE(IF(E31&gt;=20,"Saudável",IF(E31&gt;=10,"Ferido","Morrendo"))," - ",IF(E32&gt;=25,"Forte",IF(E32&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>5</v>
@@ -6221,10 +3661,10 @@
       <c r="A35" s="16">
         <v>9</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8" t="s">
         <v>3</v>
       </c>
@@ -6270,8 +3710,8 @@
         <v>8</v>
       </c>
       <c r="C38" s="11" t="str">
-        <f>IF(AND(E35&gt;=20,E36&gt;=25),"Saudável",IF(OR(E35&gt;=10,E36&gt;=10),"Enfraquecido",IF(OR(E35&gt;0,E36&gt;0),"Morrendo",IF(OR(E35=0,E36=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E35=0,E36=0),"Morto",CONCATENATE(IF(E35&gt;=20,"Saudável",IF(E35&gt;=10,"Ferido","Morrendo"))," - ",IF(E36&gt;=25,"Forte",IF(E36&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>5</v>
@@ -6284,10 +3724,10 @@
       <c r="A39" s="16">
         <v>10</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="8" t="s">
         <v>3</v>
       </c>
@@ -6333,8 +3773,8 @@
         <v>8</v>
       </c>
       <c r="C42" s="11" t="str">
-        <f>IF(AND(E39&gt;=20,E40&gt;=25),"Saudável",IF(OR(E39&gt;=10,E40&gt;=10),"Enfraquecido",IF(OR(E39&gt;0,E40&gt;0),"Morrendo",IF(OR(E39=0,E40=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E39=0,E40=0),"Morto",CONCATENATE(IF(E39&gt;=20,"Saudável",IF(E39&gt;=10,"Ferido","Morrendo"))," - ",IF(E40&gt;=25,"Forte",IF(E40&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>5</v>
@@ -6347,10 +3787,10 @@
       <c r="A43" s="16">
         <v>11</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="8" t="s">
         <v>3</v>
       </c>
@@ -6396,8 +3836,8 @@
         <v>8</v>
       </c>
       <c r="C46" s="11" t="str">
-        <f>IF(AND(E43&gt;=20,E44&gt;=25),"Saudável",IF(OR(E43&gt;=10,E44&gt;=10),"Enfraquecido",IF(OR(E43&gt;0,E44&gt;0),"Morrendo",IF(OR(E43=0,E44=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E43=0,E44=0),"Morto",CONCATENATE(IF(E43&gt;=20,"Saudável",IF(E43&gt;=10,"Ferido","Morrendo"))," - ",IF(E44&gt;=25,"Forte",IF(E44&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>5</v>
@@ -6410,10 +3850,10 @@
       <c r="A47" s="16">
         <v>12</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="20"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="8" t="s">
         <v>3</v>
       </c>
@@ -6459,8 +3899,8 @@
         <v>8</v>
       </c>
       <c r="C50" s="11" t="str">
-        <f>IF(AND(E47&gt;=20,E48&gt;=25),"Saudável",IF(OR(E47&gt;=10,E48&gt;=10),"Enfraquecido",IF(OR(E47&gt;0,E48&gt;0),"Morrendo",IF(OR(E47=0,E48=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E47=0,E48=0),"Morto",CONCATENATE(IF(E47&gt;=20,"Saudável",IF(E47&gt;=10,"Ferido","Morrendo"))," - ",IF(E48&gt;=25,"Forte",IF(E48&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>5</v>
@@ -6473,10 +3913,10 @@
       <c r="A51" s="16">
         <v>13</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8" t="s">
         <v>3</v>
       </c>
@@ -6522,8 +3962,8 @@
         <v>8</v>
       </c>
       <c r="C54" s="11" t="str">
-        <f>IF(AND(E51&gt;=20,E52&gt;=25),"Saudável",IF(OR(E51&gt;=10,E52&gt;=10),"Enfraquecido",IF(OR(E51&gt;0,E52&gt;0),"Morrendo",IF(OR(E51=0,E52=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E51=0,E52=0),"Morto",CONCATENATE(IF(E51&gt;=20,"Saudável",IF(E51&gt;=10,"Ferido","Morrendo"))," - ",IF(E52&gt;=25,"Forte",IF(E52&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>5</v>
@@ -6536,10 +3976,10 @@
       <c r="A55" s="16">
         <v>14</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="20"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="8" t="s">
         <v>3</v>
       </c>
@@ -6585,8 +4025,8 @@
         <v>8</v>
       </c>
       <c r="C58" s="11" t="str">
-        <f>IF(AND(E55&gt;=20,E56&gt;=25),"Saudável",IF(OR(E55&gt;=10,E56&gt;=10),"Enfraquecido",IF(OR(E55&gt;0,E56&gt;0),"Morrendo",IF(OR(E55=0,E56=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E55=0,E56=0),"Morto",CONCATENATE(IF(E55&gt;=20,"Saudável",IF(E55&gt;=10,"Ferido","Morrendo"))," - ",IF(E56&gt;=25,"Forte",IF(E56&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>5</v>
@@ -6599,10 +4039,10 @@
       <c r="A59" s="16">
         <v>15</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="20"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8" t="s">
         <v>3</v>
       </c>
@@ -6648,8 +4088,8 @@
         <v>8</v>
       </c>
       <c r="C62" s="11" t="str">
-        <f>IF(AND(E59&gt;=20,E60&gt;=25),"Saudável",IF(OR(E59&gt;=10,E60&gt;=10),"Enfraquecido",IF(OR(E59&gt;0,E60&gt;0),"Morrendo",IF(OR(E59=0,E60=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E59=0,E60=0),"Morto",CONCATENATE(IF(E59&gt;=20,"Saudável",IF(E59&gt;=10,"Ferido","Morrendo"))," - ",IF(E60&gt;=25,"Forte",IF(E60&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>5</v>
@@ -6662,10 +4102,10 @@
       <c r="A63" s="16">
         <v>16</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="20"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8" t="s">
         <v>3</v>
       </c>
@@ -6711,8 +4151,8 @@
         <v>8</v>
       </c>
       <c r="C66" s="11" t="str">
-        <f>IF(AND(E63&gt;=20,E64&gt;=25),"Saudável",IF(OR(E63&gt;=10,E64&gt;=10),"Enfraquecido",IF(OR(E63&gt;0,E64&gt;0),"Morrendo",IF(OR(E63=0,E64=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E63=0,E64=0),"Morto",CONCATENATE(IF(E63&gt;=20,"Saudável",IF(E63&gt;=10,"Ferido","Morrendo"))," - ",IF(E64&gt;=25,"Forte",IF(E64&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>5</v>
@@ -6725,10 +4165,10 @@
       <c r="A67" s="16">
         <v>17</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="20"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="8" t="s">
         <v>3</v>
       </c>
@@ -6774,8 +4214,8 @@
         <v>8</v>
       </c>
       <c r="C70" s="11" t="str">
-        <f>IF(AND(E67&gt;=20,E68&gt;=25),"Saudável",IF(OR(E67&gt;=10,E68&gt;=10),"Enfraquecido",IF(OR(E67&gt;0,E68&gt;0),"Morrendo",IF(OR(E67=0,E68=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E67=0,E68=0),"Morto",CONCATENATE(IF(E67&gt;=20,"Saudável",IF(E67&gt;=10,"Ferido","Morrendo"))," - ",IF(E68&gt;=25,"Forte",IF(E68&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>5</v>
@@ -6788,10 +4228,10 @@
       <c r="A71" s="16">
         <v>18</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="20"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8" t="s">
         <v>3</v>
       </c>
@@ -6837,8 +4277,8 @@
         <v>8</v>
       </c>
       <c r="C74" s="11" t="str">
-        <f>IF(AND(E71&gt;=20,E72&gt;=25),"Saudável",IF(OR(E71&gt;=10,E72&gt;=10),"Enfraquecido",IF(OR(E71&gt;0,E72&gt;0),"Morrendo",IF(OR(E71=0,E72=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E71=0,E72=0),"Morto",CONCATENATE(IF(E71&gt;=20,"Saudável",IF(E71&gt;=10,"Ferido","Morrendo"))," - ",IF(E72&gt;=25,"Forte",IF(E72&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>5</v>
@@ -6851,10 +4291,10 @@
       <c r="A75" s="16">
         <v>19</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="20"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="8" t="s">
         <v>3</v>
       </c>
@@ -6900,8 +4340,8 @@
         <v>8</v>
       </c>
       <c r="C78" s="11" t="str">
-        <f>IF(AND(E75&gt;=20,E76&gt;=25),"Saudável",IF(OR(E75&gt;=10,E76&gt;=10),"Enfraquecido",IF(OR(E75&gt;0,E76&gt;0),"Morrendo",IF(OR(E75=0,E76=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E75=0,E76=0),"Morto",CONCATENATE(IF(E75&gt;=20,"Saudável",IF(E75&gt;=10,"Ferido","Morrendo"))," - ",IF(E76&gt;=25,"Forte",IF(E76&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>5</v>
@@ -6914,10 +4354,10 @@
       <c r="A79" s="16">
         <v>20</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="20"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8" t="s">
         <v>3</v>
       </c>
@@ -6963,8 +4403,8 @@
         <v>8</v>
       </c>
       <c r="C82" s="11" t="str">
-        <f>IF(AND(E79&gt;=20,E80&gt;=25),"Saudável",IF(OR(E79&gt;=10,E80&gt;=10),"Enfraquecido",IF(OR(E79&gt;0,E80&gt;0),"Morrendo",IF(OR(E79=0,E80=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E79=0,E80=0),"Morto",CONCATENATE(IF(E79&gt;=20,"Saudável",IF(E79&gt;=10,"Ferido","Morrendo"))," - ",IF(E80&gt;=25,"Forte",IF(E80&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>5</v>
@@ -6977,10 +4417,10 @@
       <c r="A83" s="16">
         <v>21</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="20"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="8" t="s">
         <v>3</v>
       </c>
@@ -7026,8 +4466,8 @@
         <v>8</v>
       </c>
       <c r="C86" s="11" t="str">
-        <f>IF(AND(E83&gt;=20,E84&gt;=25),"Saudável",IF(OR(E83&gt;=10,E84&gt;=10),"Enfraquecido",IF(OR(E83&gt;0,E84&gt;0),"Morrendo",IF(OR(E83=0,E84=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E83=0,E84=0),"Morto",CONCATENATE(IF(E83&gt;=20,"Saudável",IF(E83&gt;=10,"Ferido","Morrendo"))," - ",IF(E84&gt;=25,"Forte",IF(E84&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>5</v>
@@ -7040,10 +4480,10 @@
       <c r="A87" s="16">
         <v>22</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="20"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="8" t="s">
         <v>3</v>
       </c>
@@ -7089,8 +4529,8 @@
         <v>8</v>
       </c>
       <c r="C90" s="11" t="str">
-        <f>IF(AND(E87&gt;=20,E88&gt;=25),"Saudável",IF(OR(E87&gt;=10,E88&gt;=10),"Enfraquecido",IF(OR(E87&gt;0,E88&gt;0),"Morrendo",IF(OR(E87=0,E88=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E87=0,E88=0),"Morto",CONCATENATE(IF(E87&gt;=20,"Saudável",IF(E87&gt;=10,"Ferido","Morrendo"))," - ",IF(E88&gt;=25,"Forte",IF(E88&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>5</v>
@@ -7103,10 +4543,10 @@
       <c r="A91" s="16">
         <v>23</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="20"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="8" t="s">
         <v>3</v>
       </c>
@@ -7152,8 +4592,8 @@
         <v>8</v>
       </c>
       <c r="C94" s="11" t="str">
-        <f>IF(AND(E91&gt;=20,E92&gt;=25),"Saudável",IF(OR(E91&gt;=10,E92&gt;=10),"Enfraquecido",IF(OR(E91&gt;0,E92&gt;0),"Morrendo",IF(OR(E91=0,E92=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E91=0,E92=0),"Morto",CONCATENATE(IF(E91&gt;=20,"Saudável",IF(E91&gt;=10,"Ferido","Morrendo"))," - ",IF(E92&gt;=25,"Forte",IF(E92&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>5</v>
@@ -7166,10 +4606,10 @@
       <c r="A95" s="16">
         <v>24</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="20"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="8" t="s">
         <v>3</v>
       </c>
@@ -7215,8 +4655,8 @@
         <v>8</v>
       </c>
       <c r="C98" s="11" t="str">
-        <f>IF(AND(E95&gt;=20,E96&gt;=25),"Saudável",IF(OR(E95&gt;=10,E96&gt;=10),"Enfraquecido",IF(OR(E95&gt;0,E96&gt;0),"Morrendo",IF(OR(E95=0,E96=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E95=0,E96=0),"Morto",CONCATENATE(IF(E95&gt;=20,"Saudável",IF(E95&gt;=10,"Ferido","Morrendo"))," - ",IF(E96&gt;=25,"Forte",IF(E96&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>5</v>
@@ -7229,10 +4669,10 @@
       <c r="A99" s="16">
         <v>25</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="20"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="8" t="s">
         <v>3</v>
       </c>
@@ -7278,8 +4718,8 @@
         <v>8</v>
       </c>
       <c r="C102" s="11" t="str">
-        <f>IF(AND(E99&gt;=20,E100&gt;=25),"Saudável",IF(OR(E99&gt;=10,E100&gt;=10),"Enfraquecido",IF(OR(E99&gt;0,E100&gt;0),"Morrendo",IF(OR(E99=0,E100=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E99=0,E100=0),"Morto",CONCATENATE(IF(E99&gt;=20,"Saudável",IF(E99&gt;=10,"Ferido","Morrendo"))," - ",IF(E100&gt;=25,"Forte",IF(E100&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>5</v>
@@ -7292,10 +4732,10 @@
       <c r="A103" s="16">
         <v>26</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="20"/>
+      <c r="C103" s="19"/>
       <c r="D103" s="8" t="s">
         <v>3</v>
       </c>
@@ -7341,8 +4781,8 @@
         <v>8</v>
       </c>
       <c r="C106" s="11" t="str">
-        <f>IF(AND(E103&gt;=20,E104&gt;=25),"Saudável",IF(OR(E103&gt;=10,E104&gt;=10),"Enfraquecido",IF(OR(E103&gt;0,E104&gt;0),"Morrendo",IF(OR(E103=0,E104=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E103=0,E104=0),"Morto",CONCATENATE(IF(E103&gt;=20,"Saudável",IF(E103&gt;=10,"Ferido","Morrendo"))," - ",IF(E104&gt;=25,"Forte",IF(E104&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>5</v>
@@ -7355,10 +4795,10 @@
       <c r="A107" s="16">
         <v>27</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="20"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="8" t="s">
         <v>3</v>
       </c>
@@ -7404,8 +4844,8 @@
         <v>8</v>
       </c>
       <c r="C110" s="11" t="str">
-        <f>IF(AND(E107&gt;=20,E108&gt;=25),"Saudável",IF(OR(E107&gt;=10,E108&gt;=10),"Enfraquecido",IF(OR(E107&gt;0,E108&gt;0),"Morrendo",IF(OR(E107=0,E108=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E107=0,E108=0),"Morto",CONCATENATE(IF(E107&gt;=20,"Saudável",IF(E107&gt;=10,"Ferido","Morrendo"))," - ",IF(E108&gt;=25,"Forte",IF(E108&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>5</v>
@@ -7418,10 +4858,10 @@
       <c r="A111" s="16">
         <v>28</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="20"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="8" t="s">
         <v>3</v>
       </c>
@@ -7467,8 +4907,8 @@
         <v>8</v>
       </c>
       <c r="C114" s="11" t="str">
-        <f>IF(AND(E111&gt;=20,E112&gt;=25),"Saudável",IF(OR(E111&gt;=10,E112&gt;=10),"Enfraquecido",IF(OR(E111&gt;0,E112&gt;0),"Morrendo",IF(OR(E111=0,E112=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E111=0,E112=0),"Morto",CONCATENATE(IF(E111&gt;=20,"Saudável",IF(E111&gt;=10,"Ferido","Morrendo"))," - ",IF(E112&gt;=25,"Forte",IF(E112&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>5</v>
@@ -7481,10 +4921,10 @@
       <c r="A115" s="16">
         <v>29</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="20"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="8" t="s">
         <v>3</v>
       </c>
@@ -7530,8 +4970,8 @@
         <v>8</v>
       </c>
       <c r="C118" s="11" t="str">
-        <f>IF(AND(E115&gt;=20,E116&gt;=25),"Saudável",IF(OR(E115&gt;=10,E116&gt;=10),"Enfraquecido",IF(OR(E115&gt;0,E116&gt;0),"Morrendo",IF(OR(E115=0,E116=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E115=0,E116=0),"Morto",CONCATENATE(IF(E115&gt;=20,"Saudável",IF(E115&gt;=10,"Ferido","Morrendo"))," - ",IF(E116&gt;=25,"Forte",IF(E116&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>5</v>
@@ -7544,10 +4984,10 @@
       <c r="A119" s="16">
         <v>30</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="20"/>
+      <c r="C119" s="19"/>
       <c r="D119" s="8" t="s">
         <v>3</v>
       </c>
@@ -7593,8 +5033,8 @@
         <v>8</v>
       </c>
       <c r="C122" s="11" t="str">
-        <f>IF(AND(E119&gt;=20,E120&gt;=25),"Saudável",IF(OR(E119&gt;=10,E120&gt;=10),"Enfraquecido",IF(OR(E119&gt;0,E120&gt;0),"Morrendo",IF(OR(E119=0,E120=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E119=0,E120=0),"Morto",CONCATENATE(IF(E119&gt;=20,"Saudável",IF(E119&gt;=10,"Ferido","Morrendo"))," - ",IF(E120&gt;=25,"Forte",IF(E120&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>5</v>
@@ -7607,10 +5047,10 @@
       <c r="A123" s="16">
         <v>31</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="20"/>
+      <c r="C123" s="19"/>
       <c r="D123" s="8" t="s">
         <v>3</v>
       </c>
@@ -7656,8 +5096,8 @@
         <v>8</v>
       </c>
       <c r="C126" s="11" t="str">
-        <f>IF(AND(E123&gt;=20,E124&gt;=25),"Saudável",IF(OR(E123&gt;=10,E124&gt;=10),"Enfraquecido",IF(OR(E123&gt;0,E124&gt;0),"Morrendo",IF(OR(E123=0,E124=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E123=0,E124=0),"Morto",CONCATENATE(IF(E123&gt;=20,"Saudável",IF(E123&gt;=10,"Ferido","Morrendo"))," - ",IF(E124&gt;=25,"Forte",IF(E124&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>5</v>
@@ -7670,10 +5110,10 @@
       <c r="A127" s="16">
         <v>32</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="20"/>
+      <c r="C127" s="19"/>
       <c r="D127" s="8" t="s">
         <v>3</v>
       </c>
@@ -7719,8 +5159,8 @@
         <v>8</v>
       </c>
       <c r="C130" s="11" t="str">
-        <f>IF(AND(E127&gt;=20,E128&gt;=25),"Saudável",IF(OR(E127&gt;=10,E128&gt;=10),"Enfraquecido",IF(OR(E127&gt;0,E128&gt;0),"Morrendo",IF(OR(E127=0,E128=0),"Morto"))))</f>
-        <v>Saudável</v>
+        <f>IF(OR(E127=0,E128=0),"Morto",CONCATENATE(IF(E127&gt;=20,"Saudável",IF(E127&gt;=10,"Ferido","Morrendo"))," - ",IF(E128&gt;=25,"Forte",IF(E128&gt;=10,"Cansado","Enfraquecido"))))</f>
+        <v>Saudável - Forte</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>5</v>
@@ -7732,33 +5172,30 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="67">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="A123:A126"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="A1:E1"/>
@@ -7775,34 +5212,37 @@
     <mergeCell ref="A111:A114"/>
     <mergeCell ref="A115:A118"/>
     <mergeCell ref="A119:A122"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="dataBar" priority="1560">
+    <cfRule type="dataBar" priority="1684">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -7816,7 +5256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="dataBar" priority="1559">
+    <cfRule type="dataBar" priority="1683">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -7830,7 +5270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="dataBar" priority="1558">
+    <cfRule type="dataBar" priority="1682">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7844,7 +5284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="dataBar" priority="1557">
+    <cfRule type="dataBar" priority="1681">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7857,22 +5297,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="251" priority="1308" operator="equal">
-      <formula>"Saudável"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="1307" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="1306" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="1305" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="dataBar" priority="248">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -7880,13 +5306,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{72F84237-11EA-430E-9E1D-ED8D0A871E94}</x14:id>
+          <x14:id>{8EB5E8F3-DD30-47AB-BC19-9522499B5FD7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="dataBar" priority="247">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -7894,13 +5320,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C1E5A47E-A447-4578-B3C7-11782FAF3A27}</x14:id>
+          <x14:id>{58B16711-18AB-471D-B1E5-154F24593627}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="dataBar" priority="246">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7908,13 +5334,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6FC1A08A-E14C-4BDB-BCC6-599B37146608}</x14:id>
+          <x14:id>{68C2AF6A-328F-4C5C-BE17-7AF50511E991}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="dataBar" priority="245">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7922,27 +5348,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0DB1B273-6D96-4F4F-8DBF-7E8ABA5FB41F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="120" priority="241" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="242" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="243" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="244" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{01B29D14-1972-42FD-A5FE-9B37D4E7B377}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="dataBar" priority="240">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -7950,13 +5362,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C8981956-9F90-427D-ACE3-11C13F1B164A}</x14:id>
+          <x14:id>{5426D0E7-EFC6-49A8-8DDA-7E0D441941A2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="dataBar" priority="239">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -7964,13 +5376,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51EEB71E-752B-4BC3-9F04-68E996E33ABB}</x14:id>
+          <x14:id>{4AD72047-2AF8-4701-8845-99F1EC8EF59A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="dataBar" priority="238">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7978,13 +5390,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8150CC09-6AEE-4C87-B8C1-8E312B4B9DFC}</x14:id>
+          <x14:id>{D9598E42-0EBE-4E8F-81B6-748D4BBB8A59}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="dataBar" priority="237">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7992,27 +5404,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75385F78-F314-4811-BD4E-0D1EF5A819A8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="116" priority="233" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="234" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="235" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="236" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{5E593C51-F098-41A5-B641-2A7EB9A71B64}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="dataBar" priority="232">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8020,13 +5418,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2A7DB7EC-A394-417A-82E7-1621BDBB54A5}</x14:id>
+          <x14:id>{6D42EC1F-BC70-44B4-9AB5-DD60E108042F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="dataBar" priority="231">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8034,13 +5432,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DCC5824F-ED4D-458E-9008-C1BFEFDC5FD0}</x14:id>
+          <x14:id>{AD1700E4-DE2B-49DD-836D-63D985B90C8B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="dataBar" priority="230">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8048,13 +5446,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2C87023-4044-4C4A-A09C-85AFA61FA157}</x14:id>
+          <x14:id>{2DE57D6D-0129-495F-A7E2-B1EDF89B97EB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="dataBar" priority="229">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8062,27 +5460,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0BC37EC3-AF7A-4969-9B59-2B67562A80EE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="115" priority="225" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="226" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="227" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="228" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{5AAB896E-D81D-453C-B76F-6923EDA64F4B}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="dataBar" priority="224">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8090,13 +5474,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E30674A6-A46A-4CD9-9BA7-00C4BEF7E451}</x14:id>
+          <x14:id>{E617CC9E-6089-45BE-9F04-70EC4176F3DA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="dataBar" priority="223">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8104,13 +5488,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1CE3D5E9-5306-42DA-85E3-714B20D59E73}</x14:id>
+          <x14:id>{45EB3B09-254F-46C4-B1A4-5B6423FFEDE6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="dataBar" priority="222">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8118,13 +5502,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F1F6790B-B4C3-438F-B19E-60BAC03601EC}</x14:id>
+          <x14:id>{A06EFE92-2DD7-4BD3-B6AD-BD2965DC1C69}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="dataBar" priority="221">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8132,27 +5516,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D59E7576-FFAD-489E-BE78-4C8A23066616}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="108" priority="217" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="218" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="219" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="220" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{BE5A18F3-7545-4B98-ADC9-A997FFAFB175}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="dataBar" priority="216">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8160,13 +5530,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AC854A57-7B9C-4F6B-B254-2EF67A8C6961}</x14:id>
+          <x14:id>{19A0762D-B803-495C-BBAE-1BEDF592E035}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8174,13 +5544,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{184503E5-1F64-4DF4-98A4-C45200A626CC}</x14:id>
+          <x14:id>{7D171FE5-0ED0-45FF-85EE-F7C8EB6329AC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="214">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8188,13 +5558,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{124DE221-E8DA-4580-8A54-5DC4E685B606}</x14:id>
+          <x14:id>{453747A8-4500-4DB1-BC0D-6C194E45BA11}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="213">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8202,27 +5572,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F5538760-6190-4209-9504-1A9DC750A422}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="107" priority="209" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="210" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="211" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="212" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{7D4200EF-0B12-4447-A510-E61F072EE308}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="208">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8230,13 +5586,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4398D2F0-C416-477D-9FDB-C8C996BE146D}</x14:id>
+          <x14:id>{9654D8FE-89A2-4FAE-9519-EE859CBF3E70}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="207">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8244,13 +5600,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8EABE855-3CE1-4DF8-BCA3-4CEE930BDA2D}</x14:id>
+          <x14:id>{61297E5D-E616-4B55-9704-2DA05BC4E318}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="206">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8258,13 +5614,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E4FC2AA-B283-491A-9DAB-1CD2AEC5F674}</x14:id>
+          <x14:id>{2D49DEA7-9B00-45FE-9C4A-BB460905B277}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="dataBar" priority="205">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8272,27 +5628,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5626FC76-0D05-49E7-8224-C9D42BEB88D2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="103" priority="201" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="202" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="203" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="204" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{0449C599-1D74-4E73-A1A6-D8DE416A28E5}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="dataBar" priority="200">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8300,13 +5642,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B8BF08D3-BF80-4CCE-BAD1-BF2C21B59FB4}</x14:id>
+          <x14:id>{6275D3CB-1488-40C5-B3DF-EBB8461C65AE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="dataBar" priority="199">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8314,13 +5656,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78BC5C5E-6079-4B42-A194-22BDA0203423}</x14:id>
+          <x14:id>{6FF8EF37-B4DF-43D8-A2A7-33BF139C5B10}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="dataBar" priority="198">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8328,13 +5670,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1B36F1F7-091A-44B1-85AA-C0862EA5F253}</x14:id>
+          <x14:id>{5E4CA0AF-3FB5-4BBE-8C18-9EEB8F1D9B26}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="dataBar" priority="197">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8342,27 +5684,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1978EBDD-49FA-4640-956D-4F44CD32392B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="99" priority="193" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="194" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="195" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="196" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{BC2ED535-A413-4783-A005-E1B849F862B4}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="dataBar" priority="192">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8370,13 +5698,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EC053061-D16A-4B30-B1B1-3C0EB0B60D74}</x14:id>
+          <x14:id>{B23B60C3-A5AF-43F8-9835-81C39BFE8B92}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="dataBar" priority="191">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8384,13 +5712,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68FD2B97-0BB4-4974-9E7A-1605ACA78607}</x14:id>
+          <x14:id>{7C0293C9-5B08-44AE-BC4C-8F19E3F746E7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="dataBar" priority="190">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8398,13 +5726,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0D915EF7-1433-429E-9B95-EA57BE80BB3E}</x14:id>
+          <x14:id>{A8E2D46D-CC23-4824-B7C7-8BE26AB40CBC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="dataBar" priority="189">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8412,27 +5740,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E42E97A0-79F9-4D34-8FEC-B09F0A3E939C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="92" priority="185" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="186" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="187" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="188" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{1B9BF2C5-9674-4067-A58D-B6012D4C68F8}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="dataBar" priority="184">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8440,13 +5754,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{228E3091-DADF-4B56-9079-A45DA70CE4BE}</x14:id>
+          <x14:id>{154E2D68-0F69-4C0D-913C-365FDAACC174}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="dataBar" priority="183">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8454,13 +5768,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EC69B20B-7ECE-4E27-8F55-6CDAE87383D3}</x14:id>
+          <x14:id>{54A82E60-23B9-4EC0-B8B1-F7A752144888}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="dataBar" priority="182">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8468,13 +5782,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71565A49-DF45-429B-989C-C72D2179D009}</x14:id>
+          <x14:id>{13F8848F-C8F1-4FD1-AF75-1D3EE5706BB2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="dataBar" priority="181">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8482,27 +5796,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A65518C-52A6-4425-9FBC-B3D9A57FD44D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="91" priority="177" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="178" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="179" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="180" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{F88E3CF7-3A86-4733-BE0D-D8D1AAD8889F}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8510,13 +5810,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D62C99C5-11A6-417F-9FB6-78E185054F9B}</x14:id>
+          <x14:id>{11843199-BFD6-4605-A9A3-58A6EDE3124D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8524,13 +5824,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4BE5658-3211-40A3-A71C-713FDEC2B086}</x14:id>
+          <x14:id>{AE4DD98B-53A0-4D55-B934-0C39C5D19FF2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="dataBar" priority="174">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8538,13 +5838,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3581337F-35F3-4C11-B305-4303C1BF3C36}</x14:id>
+          <x14:id>{635B2582-676B-4E3D-ADDC-E56163634665}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8552,27 +5852,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BB0419A6-E149-426F-8C40-4619851DE7F7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="87" priority="169" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="170" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="171" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="172" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{732B4946-E1C1-4AB9-9588-73BCB599D130}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="dataBar" priority="168">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8580,13 +5866,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C1DB01E-59E2-403E-9B31-92E3BDB3B65F}</x14:id>
+          <x14:id>{9A9D2371-D406-48B4-A893-04E2A87C6ED2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8594,13 +5880,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95543157-640E-45CC-872E-9BBE73ABF677}</x14:id>
+          <x14:id>{F7149755-64EE-4F3A-9F30-3DEFBC2E82A8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="dataBar" priority="166">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8608,13 +5894,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB8EA338-78B3-4198-9EB3-A190795E929D}</x14:id>
+          <x14:id>{38918A13-EC3F-4226-A2DA-BA4253C5DDDA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="dataBar" priority="165">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8622,27 +5908,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D52DDED-B62B-4C22-B983-AB1915FB5A67}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="83" priority="161" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="162" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="163" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="164" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{D6C91B2A-0A22-4161-A7C0-778801EBB831}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8650,13 +5922,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C6DDF19-175C-4661-916D-96FD0498FBDF}</x14:id>
+          <x14:id>{EC44DD53-24EE-427F-B819-EFD815C7C21D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8664,13 +5936,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9FEA4A77-7BE5-447D-8938-C6DD6D10B699}</x14:id>
+          <x14:id>{1A2C28E3-2DD4-4F70-AEB7-44F283080CDA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="dataBar" priority="158">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8678,13 +5950,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1CDB9671-56C9-4044-9459-C3A7D83DB796}</x14:id>
+          <x14:id>{05DAA87B-8C9E-44FE-8706-412FEBDAC24A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="dataBar" priority="157">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8692,27 +5964,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B09921FF-BCBD-4A44-A019-4DBFADA5F6B1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="cellIs" dxfId="79" priority="153" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="154" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="155" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="156" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{21206561-39F2-4358-B31E-57DD62F9B5C4}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8720,13 +5978,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8F77DF04-56AE-4E9F-A777-F60603D34DCF}</x14:id>
+          <x14:id>{DB40AB23-F436-4CA9-959C-E66492B7DFBD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="dataBar" priority="151">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8734,13 +5992,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C2A510FA-0F9B-4DD6-9DD1-7AD42F88B556}</x14:id>
+          <x14:id>{4FF1FEBD-A597-4AE4-BF86-45207B1EA107}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="dataBar" priority="150">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8748,13 +6006,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E5E151CB-9AF3-42FA-8CF9-0E1677539F65}</x14:id>
+          <x14:id>{0627A2A3-F6D1-4658-B8D8-806354458D69}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="dataBar" priority="149">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8762,27 +6020,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E96CE71E-5B63-4D9F-A1F4-EA8C8886DD4E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="cellIs" dxfId="75" priority="145" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="146" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="147" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="148" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{ECA73B08-BA31-4C94-84D1-E2B6ED977ACF}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="dataBar" priority="144">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8790,13 +6034,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9DC8B4AC-4F2F-42AA-A80D-2F462D9DDCB1}</x14:id>
+          <x14:id>{A4BC3DC3-690A-4072-841B-170B6140C5A1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="dataBar" priority="143">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8804,13 +6048,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1E7F7D19-AD2C-4518-A175-F5269C80402B}</x14:id>
+          <x14:id>{1994EB2E-DBBB-4438-8A86-BE3E54239E88}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="dataBar" priority="142">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8818,13 +6062,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B06C9110-2548-40CF-9608-133085105FB2}</x14:id>
+          <x14:id>{7EB80824-6631-42CA-973E-07B0DA13C07C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="dataBar" priority="141">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8832,27 +6076,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C8401B9-A6F2-48E3-84D0-63EE45CDB6CE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="cellIs" dxfId="71" priority="137" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="138" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="139" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="140" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{4A230D9E-43A4-4B0F-B2EC-B5A1CC67AD99}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="dataBar" priority="136">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8860,13 +6090,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{773EB569-CE67-4692-99C2-45C1AF036777}</x14:id>
+          <x14:id>{C887F917-AB16-48E5-84FD-4734A33DF981}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="dataBar" priority="135">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8874,13 +6104,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0FF9A74E-7F8B-49D9-BDE9-FAAAC496F303}</x14:id>
+          <x14:id>{F2D82166-5ADF-4804-9556-588B326EF11E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8888,13 +6118,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9CD01CDE-7285-4146-88DA-55AD03908745}</x14:id>
+          <x14:id>{619BDE46-61A9-4BF5-9B40-CC7DC1C62F70}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="dataBar" priority="133">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8902,27 +6132,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76C2D8A1-94EF-4DF9-8268-6B5F1811F653}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="cellIs" dxfId="67" priority="129" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="130" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="131" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="132" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{922916C0-D20A-435B-B113-D489465CA684}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -8930,13 +6146,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{282590A9-EBBB-42E6-B93E-1086E1A409DF}</x14:id>
+          <x14:id>{8FA408EC-A3E2-4DB2-B511-3C82E98DE881}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="dataBar" priority="127">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -8944,13 +6160,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{168FE903-5B46-458D-8B9A-00B63591BAA3}</x14:id>
+          <x14:id>{59A1F5EA-DC33-496B-8EE1-BED2D4A470F8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="dataBar" priority="126">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8958,13 +6174,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8226FDC1-6B57-4536-AAEC-82235EEC0E03}</x14:id>
+          <x14:id>{D1A3A796-BC49-4A42-B7B6-4191148D4774}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -8972,27 +6188,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7666DF13-9B86-44FC-B640-1A4C66A2CC96}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="cellIs" dxfId="60" priority="121" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="122" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="123" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="124" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{7DD33C90-698E-4A09-8E0D-A8A4BBE09467}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9000,13 +6202,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3B411D03-2C1E-4CA2-BA8E-7B52A342CFBD}</x14:id>
+          <x14:id>{2969834E-D13D-417E-AE1A-B2A48E80F7A9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9014,13 +6216,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1583AE06-ABBD-4D31-8066-16814DC58B41}</x14:id>
+          <x14:id>{132B08D9-D954-445F-9029-329774823D3E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="dataBar" priority="118">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9028,13 +6230,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8D144320-A965-475B-AC71-608953933863}</x14:id>
+          <x14:id>{1F8195FA-623F-4619-B88B-2DC6D025A0B8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="dataBar" priority="117">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9042,27 +6244,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24A90018-C7D2-4624-BCF8-064C465A74BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="cellIs" dxfId="59" priority="113" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="114" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="115" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="116" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{0C5B6353-7F2C-4690-8A86-869F7A30A4CE}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9070,13 +6258,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35A4F83C-D9F0-44F1-879E-02811472A911}</x14:id>
+          <x14:id>{7FED3FC2-1876-49FE-B9AE-66940D37C493}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="dataBar" priority="111">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9084,13 +6272,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{72ED520B-9964-498C-B4C1-66FFAC3E0EB5}</x14:id>
+          <x14:id>{48E58FFC-4363-4131-B9C8-806093208092}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="dataBar" priority="110">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9098,13 +6286,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5348C449-D177-4E2C-8A3F-80E597E4E0FA}</x14:id>
+          <x14:id>{E4B977B6-EF28-4A50-8114-AB358CD38B30}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9112,27 +6300,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0D34486F-8B2A-41B6-805E-8AB9AB44BDEE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="cellIs" dxfId="55" priority="105" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="106" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="107" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="108" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{6B2DB1B5-6F31-40F9-94AC-F84C0F66ACD8}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9140,13 +6314,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DADF6AA8-DFCF-44E6-A05F-C11979926342}</x14:id>
+          <x14:id>{E6E12E80-8EEB-4CB4-B35D-C9589DFFC1B9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="dataBar" priority="103">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9154,13 +6328,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C2EE93F8-E8F9-4106-8DB9-9ED5E53A2DAC}</x14:id>
+          <x14:id>{BB0AACF4-F46F-4331-A4F2-93775242C712}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9168,13 +6342,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{863ADA50-E631-4193-8254-937AE041FFC3}</x14:id>
+          <x14:id>{D1151361-CAB7-49CF-8D44-167BA6D32CB7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9182,27 +6356,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F56BDBAB-CFB3-4778-82DA-4B470E056013}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="cellIs" dxfId="51" priority="97" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="98" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="99" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="100" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{F3C94771-D651-4C86-8B88-95B2B1CB6F57}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9210,13 +6370,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B299E357-F938-41FA-9AA2-A7EAEF9D4C80}</x14:id>
+          <x14:id>{BC7F0684-7C8B-4326-A0E2-D3A7E8107876}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9224,13 +6384,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2C4B909B-5532-4CAB-89C3-E41C81CCDBD7}</x14:id>
+          <x14:id>{3360B6DA-7719-4D74-8B05-45CF76ACE8EF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="dataBar" priority="94">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9238,13 +6398,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C1A83523-2A79-4454-93D8-E667547EAB28}</x14:id>
+          <x14:id>{8E9F7988-8434-47CD-BCCB-0C514899ADA0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9252,27 +6412,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{38D5E134-8120-4523-920A-B28DEF170221}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="cellIs" dxfId="47" priority="89" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="90" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="91" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="92" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{4371E6FF-FFEA-4270-AFAF-6CCDD2B44338}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9280,13 +6426,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ACA8D522-DD55-491E-BD6C-3FED1CE59F7E}</x14:id>
+          <x14:id>{5217229C-19C4-4657-BA16-764658FE9AAE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9294,13 +6440,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C1A19558-6245-4938-A174-BA1BD2A02016}</x14:id>
+          <x14:id>{BA23B8B9-99CA-43D0-AE30-65E0B3EC3571}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="dataBar" priority="86">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9308,13 +6454,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3CC85252-DA56-40AC-9699-B068E585BA3C}</x14:id>
+          <x14:id>{0F391FC5-DD50-4811-BF01-85141F7557C5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9322,27 +6468,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EAAECC13-3FB6-498A-AE55-F16D6F0DE1A0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="cellIs" dxfId="43" priority="81" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="82" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="83" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="84" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{277AAD2F-CF22-4940-A8FC-8FE4E8D79CF9}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="dataBar" priority="80">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9350,13 +6482,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F3E18565-75D4-4974-B9F6-B1BC61B1CAB3}</x14:id>
+          <x14:id>{AC15B479-7DDF-40EF-8E0B-404CE0FB2692}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="dataBar" priority="79">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9364,13 +6496,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37D1B22F-8103-4B3D-A118-AAF14F8DD5B0}</x14:id>
+          <x14:id>{2FAB07D9-1CDA-4575-9909-CB9F913A1FAF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="dataBar" priority="78">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9378,13 +6510,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8AC271FA-26D0-4860-BA71-F8A755DAFEF2}</x14:id>
+          <x14:id>{60E144CB-A76F-4568-A177-65D95943546F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9392,27 +6524,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D13D50F8-F1AB-46FA-BACA-3221A209A21A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="cellIs" dxfId="39" priority="73" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="74" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="76" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{8C93DAC1-E12B-4CD5-9EF4-999A7826DB17}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9420,13 +6538,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5931AFF6-FFFF-426A-B684-6FECFDE688A3}</x14:id>
+          <x14:id>{CDC3ACCC-8D66-455E-BD0F-F9E80424B0D5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9434,13 +6552,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FE153B44-7C8D-4B99-B153-B2156F7CE3ED}</x14:id>
+          <x14:id>{AA5819DA-7ACC-4EE6-B9A7-72F1377BBE0B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="dataBar" priority="70">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9448,13 +6566,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{911B358B-FA81-4699-9953-91F3278046A9}</x14:id>
+          <x14:id>{146FDE37-1B7D-4B42-9D3E-C2C6A7985E2E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9462,27 +6580,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D27C0E61-81F8-46D7-9E6D-C4889B7F54E9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="35" priority="65" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="66" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="67" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="68" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{63AA9C2F-C63D-45A2-8610-5E0E4EB59FFA}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9490,13 +6594,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45F7193F-AA5C-4506-BCD8-B20C09C059E1}</x14:id>
+          <x14:id>{9D45E6DE-DCD0-470F-A2EB-D7F9E9079EFF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="dataBar" priority="63">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9504,13 +6608,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B2E44E2B-44FC-408C-822C-98FD1E6137EF}</x14:id>
+          <x14:id>{AB934691-4620-4ACE-9F2B-6B486F9668DE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="dataBar" priority="62">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9518,13 +6622,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{46E98D0F-83BC-4B6B-BFB9-3CF60C76A43C}</x14:id>
+          <x14:id>{CA6F873E-049E-4211-958E-726919C509A2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9532,27 +6636,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A1701F37-5E2E-470B-B0AA-BC72C949E852}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="59" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="60" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{9F30D578-C0B7-4E41-857C-40A3D3994103}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9560,13 +6650,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2BE1A891-F2F7-4812-ABDD-32951B57328E}</x14:id>
+          <x14:id>{C6761DF1-976A-4AFD-BDED-DC4AF9B19FE9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="dataBar" priority="55">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9574,13 +6664,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C16B8F12-DDF2-4752-9DE1-B6F3756CC259}</x14:id>
+          <x14:id>{F64E431E-CD0D-4B19-85C1-0358BD85C0AC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9588,13 +6678,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01FB4B42-9DA8-4E73-A0D8-3A97D4500644}</x14:id>
+          <x14:id>{A841EBAB-A192-4D5C-82EF-4D3659DBE334}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9602,27 +6692,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1FA96A3D-5089-4B2E-B528-824B8F9B5989}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="cellIs" dxfId="27" priority="49" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{9065DB2B-F5FC-414B-80E2-1E1E56280795}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9630,13 +6706,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{474008DB-B256-42D1-9AC1-B833374D57E9}</x14:id>
+          <x14:id>{C97242B6-0B59-46B2-AF49-EE10982070F4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9644,13 +6720,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82CCA18D-3D87-44DD-9CB9-D173A4404ADB}</x14:id>
+          <x14:id>{1DBF06DF-A2E6-4A36-8775-084C751F3DA1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="dataBar" priority="46">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9658,13 +6734,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1F7D45C0-7594-4DBD-8909-9CF9271BCBA0}</x14:id>
+          <x14:id>{53E3EF05-7DC4-4535-81D4-FEDD832FF335}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9672,27 +6748,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AAD33D09-DC79-4965-BEB3-0B10BEF4E0C1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{F4D5C2BB-722A-4B2F-AD86-2B652646D4DD}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9700,13 +6762,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13F04B87-2373-408A-B535-8DB2A8CFEE7A}</x14:id>
+          <x14:id>{05A8779F-5DC0-4844-9425-D58A87130FDD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9714,13 +6776,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1D6D7C94-AAEA-4066-B4B4-25311DEB8CA4}</x14:id>
+          <x14:id>{9A7D882A-4DDD-4CEB-B3B1-620AC4208F3D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9728,13 +6790,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{951A9D64-BCA1-471E-A88B-AF88EE37B8A6}</x14:id>
+          <x14:id>{5973FA28-17C5-4896-A95C-2124AA09D4F5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9742,27 +6804,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CAE22745-A335-4941-B12E-56F8B84237EA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{42BD78FC-448B-4CC6-AB2A-7354ACB5F275}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9770,13 +6818,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66ACDAE8-CA1A-4F99-AA3E-BC57276DEB2E}</x14:id>
+          <x14:id>{E2455110-F826-428E-AEEF-69294C5E7C8C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9784,13 +6832,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3B8CC3C2-A8F3-4D21-A612-7FE809172EF3}</x14:id>
+          <x14:id>{C018CB4A-8814-4390-8344-68F14B1D7A27}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9798,13 +6846,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED7E88D1-EA08-467E-8352-0D234275D475}</x14:id>
+          <x14:id>{847C9A58-91F2-4B1D-B3CC-5655BAAE7632}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9812,27 +6860,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A212E8E1-401A-48B5-8E96-F2798625D92D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{A3A71176-3087-49E1-B400-D115BCCB9C92}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9840,13 +6874,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13FE5956-DB08-41B2-93E5-67B106902153}</x14:id>
+          <x14:id>{74A867DF-DF61-470E-BA38-5EF9CC13F897}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9854,13 +6888,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA06D031-6A0D-4177-AA06-E65DE44B870A}</x14:id>
+          <x14:id>{F5B1D9F6-4E4A-43F8-B31F-651D4D5896E7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9868,13 +6902,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{511DC539-E71E-45C5-A445-EF52850F2B6E}</x14:id>
+          <x14:id>{113702D8-A26B-4866-B585-BDA9AAA90D68}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9882,27 +6916,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84BE2DD1-F8B1-4B1A-AA76-9C80A0869DF5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{D429ADFF-536F-46A1-A2F6-106260C8FE7A}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9910,13 +6930,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F6F4CD50-5044-4C3E-95FB-EFBB070E810B}</x14:id>
+          <x14:id>{1BE7C390-1C9F-42D7-871B-9689F09D1226}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9924,13 +6944,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AFFBB6FF-FA3C-4B67-BBCF-241E8A1AA899}</x14:id>
+          <x14:id>{0AB9A584-E1A8-445F-8B7E-311D4C9F2385}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9938,13 +6958,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5438E62D-6989-4CBB-B691-776FCC3FF30C}</x14:id>
+          <x14:id>{83203227-9EC2-47BA-AB7B-96CEA6187595}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -9952,27 +6972,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{101C1DE8-AE77-40C3-BFC3-D980B6FB5523}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{973FDB44-BBB5-4514-B8D4-0C3087BA3273}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="31"/>
@@ -9980,13 +6986,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{967E34A8-58C3-41F7-BF76-F7A692A6926B}</x14:id>
+          <x14:id>{2C442015-57A1-4A05-9F94-595821EB15C8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="51"/>
@@ -9994,13 +7000,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9B5F27EA-2587-44DF-AA7D-3EE198AE24AA}</x14:id>
+          <x14:id>{7C64C81F-3933-4C0F-89AB-9FF9753B4121}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10008,13 +7014,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B611F02D-7C1D-4E6A-A710-FCA47604EA38}</x14:id>
+          <x14:id>{1265B9D1-70F1-4B5B-9293-22423D657B88}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -10022,33 +7028,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A2BB0E94-A905-44E3-9858-2FDC22A58A26}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"Morto"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Morrendo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Enfraquecido"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"Saudável"</formula>
+          <x14:id>{DE254F3D-E2C0-436C-8830-9EFB10902AAF}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E41:E43 E49:E51 E65:E67 E25:E27 E57:E59 E37:E39 E5:E7 E21:E23 E53:E55 E29:E31 E61:E63 E13:E15 E45:E47 E9:E11 E33:E35 E17:E19 E105:E107 E113:E115 E129:E130 E89:E91 E121:E123 E101:E103 E69:E71 E85:E87 E117:E119 E93:E95 E125:E127 E77:E79 E109:E111 E73:E75 E97:E99 E81:E83" xr:uid="{9A7EC051-1C65-4173-8E94-51DD6845AABA}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E65:E67 E45:E47 E37:E39 E41:E43 E57:E59 E49:E51 E61:E63 E9:E11 E25:E27 E17:E19 E33:E35 E29:E31 E21:E23 E53:E55 E13:E15 E5:E7 E129:E130 E109:E111 E101:E103 E105:E107 E121:E123 E113:E115 E125:E127 E73:E75 E89:E91 E81:E83 E97:E99 E93:E95 E85:E87 E117:E119 E77:E79 E69:E71" xr:uid="{9A7EC051-1C65-4173-8E94-51DD6845AABA}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{880A8014-30DB-4106-B469-4871D04DE643}">
       <formula1>"Operador de micro,Dev Front-End,Dev Back-End,Dev Java,Dev C#,Dev Mobile,Técnico"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E8 E12 E16 E20 E24 E28 E32 E36 E40 E44 E48 E52 E56 E60 E64 E68 E72 E76 E80 E84 E88 E92 E96 E100 E104 E108 E112 E116 E120 E124 E128" xr:uid="{73656AB2-892F-4B99-81E2-4B0C16F87002}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E36 E40 E8 E44 E48 E12 E16 E52 E56 E60 E64 E20 E24 E28 E32 E68 E100 E104 E72 E108 E112 E76 E80 E116 E120 E124 E128 E84 E88 E92 E96" xr:uid="{73656AB2-892F-4B99-81E2-4B0C16F87002}">
       <formula1>0</formula1>
       <formula2>51</formula2>
     </dataValidation>
@@ -10123,7 +7115,7 @@
           <xm:sqref>E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{72F84237-11EA-430E-9E1D-ED8D0A871E94}">
+          <x14:cfRule type="dataBar" id="{8EB5E8F3-DD30-47AB-BC19-9522499B5FD7}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10139,7 +7131,7 @@
           <xm:sqref>E7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C1E5A47E-A447-4578-B3C7-11782FAF3A27}">
+          <x14:cfRule type="dataBar" id="{58B16711-18AB-471D-B1E5-154F24593627}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10155,7 +7147,7 @@
           <xm:sqref>E8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6FC1A08A-E14C-4BDB-BCC6-599B37146608}">
+          <x14:cfRule type="dataBar" id="{68C2AF6A-328F-4C5C-BE17-7AF50511E991}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10171,7 +7163,7 @@
           <xm:sqref>E9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0DB1B273-6D96-4F4F-8DBF-7E8ABA5FB41F}">
+          <x14:cfRule type="dataBar" id="{01B29D14-1972-42FD-A5FE-9B37D4E7B377}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10187,7 +7179,7 @@
           <xm:sqref>E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C8981956-9F90-427D-ACE3-11C13F1B164A}">
+          <x14:cfRule type="dataBar" id="{5426D0E7-EFC6-49A8-8DDA-7E0D441941A2}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10203,7 +7195,7 @@
           <xm:sqref>E11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51EEB71E-752B-4BC3-9F04-68E996E33ABB}">
+          <x14:cfRule type="dataBar" id="{4AD72047-2AF8-4701-8845-99F1EC8EF59A}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10219,7 +7211,7 @@
           <xm:sqref>E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8150CC09-6AEE-4C87-B8C1-8E312B4B9DFC}">
+          <x14:cfRule type="dataBar" id="{D9598E42-0EBE-4E8F-81B6-748D4BBB8A59}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10235,7 +7227,7 @@
           <xm:sqref>E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75385F78-F314-4811-BD4E-0D1EF5A819A8}">
+          <x14:cfRule type="dataBar" id="{5E593C51-F098-41A5-B641-2A7EB9A71B64}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10251,7 +7243,7 @@
           <xm:sqref>E14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2A7DB7EC-A394-417A-82E7-1621BDBB54A5}">
+          <x14:cfRule type="dataBar" id="{6D42EC1F-BC70-44B4-9AB5-DD60E108042F}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10267,7 +7259,7 @@
           <xm:sqref>E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DCC5824F-ED4D-458E-9008-C1BFEFDC5FD0}">
+          <x14:cfRule type="dataBar" id="{AD1700E4-DE2B-49DD-836D-63D985B90C8B}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10283,7 +7275,7 @@
           <xm:sqref>E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E2C87023-4044-4C4A-A09C-85AFA61FA157}">
+          <x14:cfRule type="dataBar" id="{2DE57D6D-0129-495F-A7E2-B1EDF89B97EB}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10299,7 +7291,7 @@
           <xm:sqref>E17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0BC37EC3-AF7A-4969-9B59-2B67562A80EE}">
+          <x14:cfRule type="dataBar" id="{5AAB896E-D81D-453C-B76F-6923EDA64F4B}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10315,7 +7307,7 @@
           <xm:sqref>E18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E30674A6-A46A-4CD9-9BA7-00C4BEF7E451}">
+          <x14:cfRule type="dataBar" id="{E617CC9E-6089-45BE-9F04-70EC4176F3DA}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10331,7 +7323,7 @@
           <xm:sqref>E19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CE3D5E9-5306-42DA-85E3-714B20D59E73}">
+          <x14:cfRule type="dataBar" id="{45EB3B09-254F-46C4-B1A4-5B6423FFEDE6}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10347,7 +7339,7 @@
           <xm:sqref>E20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F1F6790B-B4C3-438F-B19E-60BAC03601EC}">
+          <x14:cfRule type="dataBar" id="{A06EFE92-2DD7-4BD3-B6AD-BD2965DC1C69}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10363,7 +7355,7 @@
           <xm:sqref>E21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D59E7576-FFAD-489E-BE78-4C8A23066616}">
+          <x14:cfRule type="dataBar" id="{BE5A18F3-7545-4B98-ADC9-A997FFAFB175}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10379,7 +7371,7 @@
           <xm:sqref>E22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AC854A57-7B9C-4F6B-B254-2EF67A8C6961}">
+          <x14:cfRule type="dataBar" id="{19A0762D-B803-495C-BBAE-1BEDF592E035}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10395,7 +7387,7 @@
           <xm:sqref>E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{184503E5-1F64-4DF4-98A4-C45200A626CC}">
+          <x14:cfRule type="dataBar" id="{7D171FE5-0ED0-45FF-85EE-F7C8EB6329AC}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10411,7 +7403,7 @@
           <xm:sqref>E24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{124DE221-E8DA-4580-8A54-5DC4E685B606}">
+          <x14:cfRule type="dataBar" id="{453747A8-4500-4DB1-BC0D-6C194E45BA11}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10427,7 +7419,7 @@
           <xm:sqref>E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F5538760-6190-4209-9504-1A9DC750A422}">
+          <x14:cfRule type="dataBar" id="{7D4200EF-0B12-4447-A510-E61F072EE308}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10443,7 +7435,7 @@
           <xm:sqref>E26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4398D2F0-C416-477D-9FDB-C8C996BE146D}">
+          <x14:cfRule type="dataBar" id="{9654D8FE-89A2-4FAE-9519-EE859CBF3E70}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10459,7 +7451,7 @@
           <xm:sqref>E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8EABE855-3CE1-4DF8-BCA3-4CEE930BDA2D}">
+          <x14:cfRule type="dataBar" id="{61297E5D-E616-4B55-9704-2DA05BC4E318}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10475,7 +7467,7 @@
           <xm:sqref>E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E4FC2AA-B283-491A-9DAB-1CD2AEC5F674}">
+          <x14:cfRule type="dataBar" id="{2D49DEA7-9B00-45FE-9C4A-BB460905B277}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10491,7 +7483,7 @@
           <xm:sqref>E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5626FC76-0D05-49E7-8224-C9D42BEB88D2}">
+          <x14:cfRule type="dataBar" id="{0449C599-1D74-4E73-A1A6-D8DE416A28E5}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10507,7 +7499,7 @@
           <xm:sqref>E30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B8BF08D3-BF80-4CCE-BAD1-BF2C21B59FB4}">
+          <x14:cfRule type="dataBar" id="{6275D3CB-1488-40C5-B3DF-EBB8461C65AE}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10523,7 +7515,7 @@
           <xm:sqref>E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{78BC5C5E-6079-4B42-A194-22BDA0203423}">
+          <x14:cfRule type="dataBar" id="{6FF8EF37-B4DF-43D8-A2A7-33BF139C5B10}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10539,7 +7531,7 @@
           <xm:sqref>E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1B36F1F7-091A-44B1-85AA-C0862EA5F253}">
+          <x14:cfRule type="dataBar" id="{5E4CA0AF-3FB5-4BBE-8C18-9EEB8F1D9B26}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10555,7 +7547,7 @@
           <xm:sqref>E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1978EBDD-49FA-4640-956D-4F44CD32392B}">
+          <x14:cfRule type="dataBar" id="{BC2ED535-A413-4783-A005-E1B849F862B4}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10571,7 +7563,7 @@
           <xm:sqref>E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC053061-D16A-4B30-B1B1-3C0EB0B60D74}">
+          <x14:cfRule type="dataBar" id="{B23B60C3-A5AF-43F8-9835-81C39BFE8B92}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10587,7 +7579,7 @@
           <xm:sqref>E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68FD2B97-0BB4-4974-9E7A-1605ACA78607}">
+          <x14:cfRule type="dataBar" id="{7C0293C9-5B08-44AE-BC4C-8F19E3F746E7}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10603,7 +7595,7 @@
           <xm:sqref>E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0D915EF7-1433-429E-9B95-EA57BE80BB3E}">
+          <x14:cfRule type="dataBar" id="{A8E2D46D-CC23-4824-B7C7-8BE26AB40CBC}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10619,7 +7611,7 @@
           <xm:sqref>E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E42E97A0-79F9-4D34-8FEC-B09F0A3E939C}">
+          <x14:cfRule type="dataBar" id="{1B9BF2C5-9674-4067-A58D-B6012D4C68F8}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10635,7 +7627,7 @@
           <xm:sqref>E38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{228E3091-DADF-4B56-9079-A45DA70CE4BE}">
+          <x14:cfRule type="dataBar" id="{154E2D68-0F69-4C0D-913C-365FDAACC174}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10651,7 +7643,7 @@
           <xm:sqref>E39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC69B20B-7ECE-4E27-8F55-6CDAE87383D3}">
+          <x14:cfRule type="dataBar" id="{54A82E60-23B9-4EC0-B8B1-F7A752144888}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10667,7 +7659,7 @@
           <xm:sqref>E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71565A49-DF45-429B-989C-C72D2179D009}">
+          <x14:cfRule type="dataBar" id="{13F8848F-C8F1-4FD1-AF75-1D3EE5706BB2}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10683,7 +7675,7 @@
           <xm:sqref>E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A65518C-52A6-4425-9FBC-B3D9A57FD44D}">
+          <x14:cfRule type="dataBar" id="{F88E3CF7-3A86-4733-BE0D-D8D1AAD8889F}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10699,7 +7691,7 @@
           <xm:sqref>E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D62C99C5-11A6-417F-9FB6-78E185054F9B}">
+          <x14:cfRule type="dataBar" id="{11843199-BFD6-4605-A9A3-58A6EDE3124D}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10715,7 +7707,7 @@
           <xm:sqref>E43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C4BE5658-3211-40A3-A71C-713FDEC2B086}">
+          <x14:cfRule type="dataBar" id="{AE4DD98B-53A0-4D55-B934-0C39C5D19FF2}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10731,7 +7723,7 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3581337F-35F3-4C11-B305-4303C1BF3C36}">
+          <x14:cfRule type="dataBar" id="{635B2582-676B-4E3D-ADDC-E56163634665}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10747,7 +7739,7 @@
           <xm:sqref>E45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BB0419A6-E149-426F-8C40-4619851DE7F7}">
+          <x14:cfRule type="dataBar" id="{732B4946-E1C1-4AB9-9588-73BCB599D130}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10763,7 +7755,7 @@
           <xm:sqref>E46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7C1DB01E-59E2-403E-9B31-92E3BDB3B65F}">
+          <x14:cfRule type="dataBar" id="{9A9D2371-D406-48B4-A893-04E2A87C6ED2}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10779,7 +7771,7 @@
           <xm:sqref>E47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95543157-640E-45CC-872E-9BBE73ABF677}">
+          <x14:cfRule type="dataBar" id="{F7149755-64EE-4F3A-9F30-3DEFBC2E82A8}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10795,7 +7787,7 @@
           <xm:sqref>E48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB8EA338-78B3-4198-9EB3-A190795E929D}">
+          <x14:cfRule type="dataBar" id="{38918A13-EC3F-4226-A2DA-BA4253C5DDDA}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10811,7 +7803,7 @@
           <xm:sqref>E49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D52DDED-B62B-4C22-B983-AB1915FB5A67}">
+          <x14:cfRule type="dataBar" id="{D6C91B2A-0A22-4161-A7C0-778801EBB831}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10827,7 +7819,7 @@
           <xm:sqref>E50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C6DDF19-175C-4661-916D-96FD0498FBDF}">
+          <x14:cfRule type="dataBar" id="{EC44DD53-24EE-427F-B819-EFD815C7C21D}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10843,7 +7835,7 @@
           <xm:sqref>E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9FEA4A77-7BE5-447D-8938-C6DD6D10B699}">
+          <x14:cfRule type="dataBar" id="{1A2C28E3-2DD4-4F70-AEB7-44F283080CDA}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10859,7 +7851,7 @@
           <xm:sqref>E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CDB9671-56C9-4044-9459-C3A7D83DB796}">
+          <x14:cfRule type="dataBar" id="{05DAA87B-8C9E-44FE-8706-412FEBDAC24A}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10875,7 +7867,7 @@
           <xm:sqref>E53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B09921FF-BCBD-4A44-A019-4DBFADA5F6B1}">
+          <x14:cfRule type="dataBar" id="{21206561-39F2-4358-B31E-57DD62F9B5C4}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10891,7 +7883,7 @@
           <xm:sqref>E54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8F77DF04-56AE-4E9F-A777-F60603D34DCF}">
+          <x14:cfRule type="dataBar" id="{DB40AB23-F436-4CA9-959C-E66492B7DFBD}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10907,7 +7899,7 @@
           <xm:sqref>E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C2A510FA-0F9B-4DD6-9DD1-7AD42F88B556}">
+          <x14:cfRule type="dataBar" id="{4FF1FEBD-A597-4AE4-BF86-45207B1EA107}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10923,7 +7915,7 @@
           <xm:sqref>E56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E5E151CB-9AF3-42FA-8CF9-0E1677539F65}">
+          <x14:cfRule type="dataBar" id="{0627A2A3-F6D1-4658-B8D8-806354458D69}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10939,7 +7931,7 @@
           <xm:sqref>E57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E96CE71E-5B63-4D9F-A1F4-EA8C8886DD4E}">
+          <x14:cfRule type="dataBar" id="{ECA73B08-BA31-4C94-84D1-E2B6ED977ACF}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10955,7 +7947,7 @@
           <xm:sqref>E58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9DC8B4AC-4F2F-42AA-A80D-2F462D9DDCB1}">
+          <x14:cfRule type="dataBar" id="{A4BC3DC3-690A-4072-841B-170B6140C5A1}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10971,7 +7963,7 @@
           <xm:sqref>E59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1E7F7D19-AD2C-4518-A175-F5269C80402B}">
+          <x14:cfRule type="dataBar" id="{1994EB2E-DBBB-4438-8A86-BE3E54239E88}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10987,7 +7979,7 @@
           <xm:sqref>E60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B06C9110-2548-40CF-9608-133085105FB2}">
+          <x14:cfRule type="dataBar" id="{7EB80824-6631-42CA-973E-07B0DA13C07C}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11003,7 +7995,7 @@
           <xm:sqref>E61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C8401B9-A6F2-48E3-84D0-63EE45CDB6CE}">
+          <x14:cfRule type="dataBar" id="{4A230D9E-43A4-4B0F-B2EC-B5A1CC67AD99}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11019,7 +8011,7 @@
           <xm:sqref>E62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{773EB569-CE67-4692-99C2-45C1AF036777}">
+          <x14:cfRule type="dataBar" id="{C887F917-AB16-48E5-84FD-4734A33DF981}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11035,7 +8027,7 @@
           <xm:sqref>E63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0FF9A74E-7F8B-49D9-BDE9-FAAAC496F303}">
+          <x14:cfRule type="dataBar" id="{F2D82166-5ADF-4804-9556-588B326EF11E}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11051,7 +8043,7 @@
           <xm:sqref>E64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9CD01CDE-7285-4146-88DA-55AD03908745}">
+          <x14:cfRule type="dataBar" id="{619BDE46-61A9-4BF5-9B40-CC7DC1C62F70}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11067,7 +8059,7 @@
           <xm:sqref>E65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{76C2D8A1-94EF-4DF9-8268-6B5F1811F653}">
+          <x14:cfRule type="dataBar" id="{922916C0-D20A-435B-B113-D489465CA684}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11083,7 +8075,7 @@
           <xm:sqref>E66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{282590A9-EBBB-42E6-B93E-1086E1A409DF}">
+          <x14:cfRule type="dataBar" id="{8FA408EC-A3E2-4DB2-B511-3C82E98DE881}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11099,7 +8091,7 @@
           <xm:sqref>E67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{168FE903-5B46-458D-8B9A-00B63591BAA3}">
+          <x14:cfRule type="dataBar" id="{59A1F5EA-DC33-496B-8EE1-BED2D4A470F8}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11115,7 +8107,7 @@
           <xm:sqref>E68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8226FDC1-6B57-4536-AAEC-82235EEC0E03}">
+          <x14:cfRule type="dataBar" id="{D1A3A796-BC49-4A42-B7B6-4191148D4774}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11131,7 +8123,7 @@
           <xm:sqref>E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7666DF13-9B86-44FC-B640-1A4C66A2CC96}">
+          <x14:cfRule type="dataBar" id="{7DD33C90-698E-4A09-8E0D-A8A4BBE09467}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11147,7 +8139,7 @@
           <xm:sqref>E70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3B411D03-2C1E-4CA2-BA8E-7B52A342CFBD}">
+          <x14:cfRule type="dataBar" id="{2969834E-D13D-417E-AE1A-B2A48E80F7A9}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11163,7 +8155,7 @@
           <xm:sqref>E71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1583AE06-ABBD-4D31-8066-16814DC58B41}">
+          <x14:cfRule type="dataBar" id="{132B08D9-D954-445F-9029-329774823D3E}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11179,7 +8171,7 @@
           <xm:sqref>E72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8D144320-A965-475B-AC71-608953933863}">
+          <x14:cfRule type="dataBar" id="{1F8195FA-623F-4619-B88B-2DC6D025A0B8}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11195,7 +8187,7 @@
           <xm:sqref>E73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{24A90018-C7D2-4624-BCF8-064C465A74BF}">
+          <x14:cfRule type="dataBar" id="{0C5B6353-7F2C-4690-8A86-869F7A30A4CE}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11211,7 +8203,7 @@
           <xm:sqref>E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35A4F83C-D9F0-44F1-879E-02811472A911}">
+          <x14:cfRule type="dataBar" id="{7FED3FC2-1876-49FE-B9AE-66940D37C493}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11227,7 +8219,7 @@
           <xm:sqref>E75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{72ED520B-9964-498C-B4C1-66FFAC3E0EB5}">
+          <x14:cfRule type="dataBar" id="{48E58FFC-4363-4131-B9C8-806093208092}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11243,7 +8235,7 @@
           <xm:sqref>E76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5348C449-D177-4E2C-8A3F-80E597E4E0FA}">
+          <x14:cfRule type="dataBar" id="{E4B977B6-EF28-4A50-8114-AB358CD38B30}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11259,7 +8251,7 @@
           <xm:sqref>E77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0D34486F-8B2A-41B6-805E-8AB9AB44BDEE}">
+          <x14:cfRule type="dataBar" id="{6B2DB1B5-6F31-40F9-94AC-F84C0F66ACD8}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11275,7 +8267,7 @@
           <xm:sqref>E78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DADF6AA8-DFCF-44E6-A05F-C11979926342}">
+          <x14:cfRule type="dataBar" id="{E6E12E80-8EEB-4CB4-B35D-C9589DFFC1B9}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11291,7 +8283,7 @@
           <xm:sqref>E79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C2EE93F8-E8F9-4106-8DB9-9ED5E53A2DAC}">
+          <x14:cfRule type="dataBar" id="{BB0AACF4-F46F-4331-A4F2-93775242C712}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11307,7 +8299,7 @@
           <xm:sqref>E80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{863ADA50-E631-4193-8254-937AE041FFC3}">
+          <x14:cfRule type="dataBar" id="{D1151361-CAB7-49CF-8D44-167BA6D32CB7}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11323,7 +8315,7 @@
           <xm:sqref>E81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F56BDBAB-CFB3-4778-82DA-4B470E056013}">
+          <x14:cfRule type="dataBar" id="{F3C94771-D651-4C86-8B88-95B2B1CB6F57}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11339,7 +8331,7 @@
           <xm:sqref>E82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B299E357-F938-41FA-9AA2-A7EAEF9D4C80}">
+          <x14:cfRule type="dataBar" id="{BC7F0684-7C8B-4326-A0E2-D3A7E8107876}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11355,7 +8347,7 @@
           <xm:sqref>E83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2C4B909B-5532-4CAB-89C3-E41C81CCDBD7}">
+          <x14:cfRule type="dataBar" id="{3360B6DA-7719-4D74-8B05-45CF76ACE8EF}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11371,7 +8363,7 @@
           <xm:sqref>E84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C1A83523-2A79-4454-93D8-E667547EAB28}">
+          <x14:cfRule type="dataBar" id="{8E9F7988-8434-47CD-BCCB-0C514899ADA0}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11387,7 +8379,7 @@
           <xm:sqref>E85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{38D5E134-8120-4523-920A-B28DEF170221}">
+          <x14:cfRule type="dataBar" id="{4371E6FF-FFEA-4270-AFAF-6CCDD2B44338}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11403,7 +8395,7 @@
           <xm:sqref>E86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ACA8D522-DD55-491E-BD6C-3FED1CE59F7E}">
+          <x14:cfRule type="dataBar" id="{5217229C-19C4-4657-BA16-764658FE9AAE}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11419,7 +8411,7 @@
           <xm:sqref>E87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C1A19558-6245-4938-A174-BA1BD2A02016}">
+          <x14:cfRule type="dataBar" id="{BA23B8B9-99CA-43D0-AE30-65E0B3EC3571}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11435,7 +8427,7 @@
           <xm:sqref>E88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3CC85252-DA56-40AC-9699-B068E585BA3C}">
+          <x14:cfRule type="dataBar" id="{0F391FC5-DD50-4811-BF01-85141F7557C5}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11451,7 +8443,7 @@
           <xm:sqref>E89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EAAECC13-3FB6-498A-AE55-F16D6F0DE1A0}">
+          <x14:cfRule type="dataBar" id="{277AAD2F-CF22-4940-A8FC-8FE4E8D79CF9}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11467,7 +8459,7 @@
           <xm:sqref>E90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F3E18565-75D4-4974-B9F6-B1BC61B1CAB3}">
+          <x14:cfRule type="dataBar" id="{AC15B479-7DDF-40EF-8E0B-404CE0FB2692}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11483,7 +8475,7 @@
           <xm:sqref>E91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37D1B22F-8103-4B3D-A118-AAF14F8DD5B0}">
+          <x14:cfRule type="dataBar" id="{2FAB07D9-1CDA-4575-9909-CB9F913A1FAF}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11499,7 +8491,7 @@
           <xm:sqref>E92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8AC271FA-26D0-4860-BA71-F8A755DAFEF2}">
+          <x14:cfRule type="dataBar" id="{60E144CB-A76F-4568-A177-65D95943546F}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11515,7 +8507,7 @@
           <xm:sqref>E93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D13D50F8-F1AB-46FA-BACA-3221A209A21A}">
+          <x14:cfRule type="dataBar" id="{8C93DAC1-E12B-4CD5-9EF4-999A7826DB17}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11531,7 +8523,7 @@
           <xm:sqref>E94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5931AFF6-FFFF-426A-B684-6FECFDE688A3}">
+          <x14:cfRule type="dataBar" id="{CDC3ACCC-8D66-455E-BD0F-F9E80424B0D5}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11547,7 +8539,7 @@
           <xm:sqref>E95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FE153B44-7C8D-4B99-B153-B2156F7CE3ED}">
+          <x14:cfRule type="dataBar" id="{AA5819DA-7ACC-4EE6-B9A7-72F1377BBE0B}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11563,7 +8555,7 @@
           <xm:sqref>E96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{911B358B-FA81-4699-9953-91F3278046A9}">
+          <x14:cfRule type="dataBar" id="{146FDE37-1B7D-4B42-9D3E-C2C6A7985E2E}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11579,7 +8571,7 @@
           <xm:sqref>E97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D27C0E61-81F8-46D7-9E6D-C4889B7F54E9}">
+          <x14:cfRule type="dataBar" id="{63AA9C2F-C63D-45A2-8610-5E0E4EB59FFA}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11595,7 +8587,7 @@
           <xm:sqref>E98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45F7193F-AA5C-4506-BCD8-B20C09C059E1}">
+          <x14:cfRule type="dataBar" id="{9D45E6DE-DCD0-470F-A2EB-D7F9E9079EFF}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11611,7 +8603,7 @@
           <xm:sqref>E99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B2E44E2B-44FC-408C-822C-98FD1E6137EF}">
+          <x14:cfRule type="dataBar" id="{AB934691-4620-4ACE-9F2B-6B486F9668DE}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11627,7 +8619,7 @@
           <xm:sqref>E100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{46E98D0F-83BC-4B6B-BFB9-3CF60C76A43C}">
+          <x14:cfRule type="dataBar" id="{CA6F873E-049E-4211-958E-726919C509A2}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11643,7 +8635,7 @@
           <xm:sqref>E101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A1701F37-5E2E-470B-B0AA-BC72C949E852}">
+          <x14:cfRule type="dataBar" id="{9F30D578-C0B7-4E41-857C-40A3D3994103}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11659,7 +8651,7 @@
           <xm:sqref>E102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2BE1A891-F2F7-4812-ABDD-32951B57328E}">
+          <x14:cfRule type="dataBar" id="{C6761DF1-976A-4AFD-BDED-DC4AF9B19FE9}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11675,7 +8667,7 @@
           <xm:sqref>E103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C16B8F12-DDF2-4752-9DE1-B6F3756CC259}">
+          <x14:cfRule type="dataBar" id="{F64E431E-CD0D-4B19-85C1-0358BD85C0AC}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11691,7 +8683,7 @@
           <xm:sqref>E104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01FB4B42-9DA8-4E73-A0D8-3A97D4500644}">
+          <x14:cfRule type="dataBar" id="{A841EBAB-A192-4D5C-82EF-4D3659DBE334}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11707,7 +8699,7 @@
           <xm:sqref>E105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1FA96A3D-5089-4B2E-B528-824B8F9B5989}">
+          <x14:cfRule type="dataBar" id="{9065DB2B-F5FC-414B-80E2-1E1E56280795}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11723,7 +8715,7 @@
           <xm:sqref>E106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{474008DB-B256-42D1-9AC1-B833374D57E9}">
+          <x14:cfRule type="dataBar" id="{C97242B6-0B59-46B2-AF49-EE10982070F4}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11739,7 +8731,7 @@
           <xm:sqref>E107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82CCA18D-3D87-44DD-9CB9-D173A4404ADB}">
+          <x14:cfRule type="dataBar" id="{1DBF06DF-A2E6-4A36-8775-084C751F3DA1}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11755,7 +8747,7 @@
           <xm:sqref>E108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1F7D45C0-7594-4DBD-8909-9CF9271BCBA0}">
+          <x14:cfRule type="dataBar" id="{53E3EF05-7DC4-4535-81D4-FEDD832FF335}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11771,7 +8763,7 @@
           <xm:sqref>E109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AAD33D09-DC79-4965-BEB3-0B10BEF4E0C1}">
+          <x14:cfRule type="dataBar" id="{F4D5C2BB-722A-4B2F-AD86-2B652646D4DD}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11787,7 +8779,7 @@
           <xm:sqref>E110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13F04B87-2373-408A-B535-8DB2A8CFEE7A}">
+          <x14:cfRule type="dataBar" id="{05A8779F-5DC0-4844-9425-D58A87130FDD}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11803,7 +8795,7 @@
           <xm:sqref>E111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1D6D7C94-AAEA-4066-B4B4-25311DEB8CA4}">
+          <x14:cfRule type="dataBar" id="{9A7D882A-4DDD-4CEB-B3B1-620AC4208F3D}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11819,7 +8811,7 @@
           <xm:sqref>E112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{951A9D64-BCA1-471E-A88B-AF88EE37B8A6}">
+          <x14:cfRule type="dataBar" id="{5973FA28-17C5-4896-A95C-2124AA09D4F5}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11835,7 +8827,7 @@
           <xm:sqref>E113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CAE22745-A335-4941-B12E-56F8B84237EA}">
+          <x14:cfRule type="dataBar" id="{42BD78FC-448B-4CC6-AB2A-7354ACB5F275}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11851,7 +8843,7 @@
           <xm:sqref>E114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{66ACDAE8-CA1A-4F99-AA3E-BC57276DEB2E}">
+          <x14:cfRule type="dataBar" id="{E2455110-F826-428E-AEEF-69294C5E7C8C}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11867,7 +8859,7 @@
           <xm:sqref>E115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3B8CC3C2-A8F3-4D21-A612-7FE809172EF3}">
+          <x14:cfRule type="dataBar" id="{C018CB4A-8814-4390-8344-68F14B1D7A27}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11883,7 +8875,7 @@
           <xm:sqref>E116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED7E88D1-EA08-467E-8352-0D234275D475}">
+          <x14:cfRule type="dataBar" id="{847C9A58-91F2-4B1D-B3CC-5655BAAE7632}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11899,7 +8891,7 @@
           <xm:sqref>E117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A212E8E1-401A-48B5-8E96-F2798625D92D}">
+          <x14:cfRule type="dataBar" id="{A3A71176-3087-49E1-B400-D115BCCB9C92}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11915,7 +8907,7 @@
           <xm:sqref>E118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13FE5956-DB08-41B2-93E5-67B106902153}">
+          <x14:cfRule type="dataBar" id="{74A867DF-DF61-470E-BA38-5EF9CC13F897}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11931,7 +8923,7 @@
           <xm:sqref>E119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA06D031-6A0D-4177-AA06-E65DE44B870A}">
+          <x14:cfRule type="dataBar" id="{F5B1D9F6-4E4A-43F8-B31F-651D4D5896E7}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11947,7 +8939,7 @@
           <xm:sqref>E120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{511DC539-E71E-45C5-A445-EF52850F2B6E}">
+          <x14:cfRule type="dataBar" id="{113702D8-A26B-4866-B585-BDA9AAA90D68}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11963,7 +8955,7 @@
           <xm:sqref>E121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84BE2DD1-F8B1-4B1A-AA76-9C80A0869DF5}">
+          <x14:cfRule type="dataBar" id="{D429ADFF-536F-46A1-A2F6-106260C8FE7A}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11979,7 +8971,7 @@
           <xm:sqref>E122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F6F4CD50-5044-4C3E-95FB-EFBB070E810B}">
+          <x14:cfRule type="dataBar" id="{1BE7C390-1C9F-42D7-871B-9689F09D1226}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11995,7 +8987,7 @@
           <xm:sqref>E123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AFFBB6FF-FA3C-4B67-BBCF-241E8A1AA899}">
+          <x14:cfRule type="dataBar" id="{0AB9A584-E1A8-445F-8B7E-311D4C9F2385}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12011,7 +9003,7 @@
           <xm:sqref>E124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5438E62D-6989-4CBB-B691-776FCC3FF30C}">
+          <x14:cfRule type="dataBar" id="{83203227-9EC2-47BA-AB7B-96CEA6187595}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12027,7 +9019,7 @@
           <xm:sqref>E125</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{101C1DE8-AE77-40C3-BFC3-D980B6FB5523}">
+          <x14:cfRule type="dataBar" id="{973FDB44-BBB5-4514-B8D4-0C3087BA3273}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12043,7 +9035,7 @@
           <xm:sqref>E126</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{967E34A8-58C3-41F7-BF76-F7A692A6926B}">
+          <x14:cfRule type="dataBar" id="{2C442015-57A1-4A05-9F94-595821EB15C8}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12059,7 +9051,7 @@
           <xm:sqref>E127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9B5F27EA-2587-44DF-AA7D-3EE198AE24AA}">
+          <x14:cfRule type="dataBar" id="{7C64C81F-3933-4C0F-89AB-9FF9753B4121}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12075,7 +9067,7 @@
           <xm:sqref>E128</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B611F02D-7C1D-4E6A-A710-FCA47604EA38}">
+          <x14:cfRule type="dataBar" id="{1265B9D1-70F1-4B5B-9293-22423D657B88}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12091,7 +9083,7 @@
           <xm:sqref>E129</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A2BB0E94-A905-44E3-9858-2FDC22A58A26}">
+          <x14:cfRule type="dataBar" id="{DE254F3D-E2C0-436C-8830-9EFB10902AAF}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
